--- a/MidiThru4/midithru4_bom.xlsx
+++ b/MidiThru4/midithru4_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/_home/_schemes/_Midi/MidiThru/MidiThru4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52211EAC-59EB-5B49-88A7-69F386796592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60506181-0903-DF44-A7E8-351CE1C43180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="181">
   <si>
     <t>D</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>JP1</t>
-  </si>
-  <si>
-    <t>Pin_Headers:Pin_Header_Straight_1x03_Pitch2.54mm</t>
   </si>
   <si>
     <t>Dual jumper, normally closed</t>
@@ -917,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ204"/>
+  <dimension ref="A1:AJ203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,7 +957,7 @@
     <col min="36" max="36" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -968,16 +965,16 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -985,18 +982,18 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>177</v>
-      </c>
-      <c r="D2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -1005,15 +1002,15 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -1025,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1042,9 +1039,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -1056,10 +1053,10 @@
         <v>50</v>
       </c>
       <c r="E6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1076,26 +1073,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1104,15 +1101,15 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1121,124 +1118,127 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>88</v>
+      </c>
+      <c r="W14" t="s">
+        <v>89</v>
+      </c>
+      <c r="X14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="R15" t="s">
         <v>4</v>
       </c>
       <c r="S15" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
         <v>88</v>
       </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>89</v>
       </c>
-      <c r="W15" t="s">
-        <v>90</v>
-      </c>
       <c r="X15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="R16" t="s">
         <v>4</v>
       </c>
       <c r="S16" t="s">
+        <v>87</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
         <v>88</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>89</v>
       </c>
-      <c r="W16" t="s">
-        <v>90</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="Z16" t="s">
         <v>93</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="18:29" x14ac:dyDescent="0.2">
@@ -1246,18 +1246,24 @@
         <v>4</v>
       </c>
       <c r="S17" t="s">
+        <v>87</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
         <v>88</v>
       </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>89</v>
       </c>
-      <c r="W17" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1266,22 +1272,22 @@
         <v>4</v>
       </c>
       <c r="S18" t="s">
+        <v>87</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
         <v>88</v>
       </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>89</v>
       </c>
-      <c r="W18" t="s">
-        <v>90</v>
-      </c>
       <c r="AA18" t="s">
         <v>13</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC18" t="s">
         <v>95</v>
@@ -1292,25 +1298,25 @@
         <v>4</v>
       </c>
       <c r="S19" t="s">
+        <v>87</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
         <v>88</v>
       </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>89</v>
       </c>
-      <c r="W19" t="s">
-        <v>90</v>
-      </c>
       <c r="AA19" t="s">
         <v>13</v>
       </c>
       <c r="AB19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="18:29" x14ac:dyDescent="0.2">
@@ -1318,22 +1324,22 @@
         <v>4</v>
       </c>
       <c r="S20" t="s">
+        <v>87</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
         <v>88</v>
       </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>89</v>
       </c>
-      <c r="W20" t="s">
-        <v>90</v>
-      </c>
       <c r="AA20" t="s">
         <v>13</v>
       </c>
       <c r="AB20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC20" t="s">
         <v>95</v>
@@ -1344,25 +1350,25 @@
         <v>4</v>
       </c>
       <c r="S21" t="s">
+        <v>87</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
         <v>88</v>
       </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>89</v>
       </c>
-      <c r="W21" t="s">
-        <v>90</v>
-      </c>
       <c r="AA21" t="s">
         <v>13</v>
       </c>
       <c r="AB21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="18:29" x14ac:dyDescent="0.2">
@@ -1370,22 +1376,22 @@
         <v>4</v>
       </c>
       <c r="S22" t="s">
+        <v>87</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
         <v>88</v>
       </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>89</v>
       </c>
-      <c r="W22" t="s">
-        <v>90</v>
-      </c>
       <c r="AA22" t="s">
         <v>13</v>
       </c>
       <c r="AB22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC22" t="s">
         <v>95</v>
@@ -1396,25 +1402,25 @@
         <v>4</v>
       </c>
       <c r="S23" t="s">
+        <v>87</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
         <v>88</v>
       </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>89</v>
       </c>
-      <c r="W23" t="s">
-        <v>90</v>
-      </c>
       <c r="AA23" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="AB23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="18:29" x14ac:dyDescent="0.2">
@@ -1422,25 +1428,25 @@
         <v>4</v>
       </c>
       <c r="S24" t="s">
+        <v>87</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
         <v>88</v>
       </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>89</v>
       </c>
-      <c r="W24" t="s">
-        <v>90</v>
-      </c>
       <c r="AA24" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="AB24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="18:29" x14ac:dyDescent="0.2">
@@ -1448,25 +1454,25 @@
         <v>4</v>
       </c>
       <c r="S25" t="s">
+        <v>87</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
         <v>88</v>
       </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>89</v>
       </c>
-      <c r="W25" t="s">
-        <v>90</v>
-      </c>
       <c r="AA25" t="s">
         <v>13</v>
       </c>
       <c r="AB25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="18:29" x14ac:dyDescent="0.2">
@@ -1474,22 +1480,22 @@
         <v>4</v>
       </c>
       <c r="S26" t="s">
+        <v>87</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
         <v>88</v>
       </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>89</v>
       </c>
-      <c r="W26" t="s">
-        <v>90</v>
-      </c>
       <c r="AA26" t="s">
         <v>13</v>
       </c>
       <c r="AB26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="s">
         <v>95</v>
@@ -1500,25 +1506,25 @@
         <v>4</v>
       </c>
       <c r="S27" t="s">
+        <v>87</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
         <v>88</v>
       </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>89</v>
       </c>
-      <c r="W27" t="s">
-        <v>90</v>
-      </c>
       <c r="AA27" t="s">
         <v>13</v>
       </c>
       <c r="AB27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="18:29" x14ac:dyDescent="0.2">
@@ -1526,22 +1532,22 @@
         <v>4</v>
       </c>
       <c r="S28" t="s">
+        <v>87</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
         <v>88</v>
       </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>89</v>
       </c>
-      <c r="W28" t="s">
-        <v>90</v>
-      </c>
       <c r="AA28" t="s">
         <v>13</v>
       </c>
       <c r="AB28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="s">
         <v>95</v>
@@ -1552,25 +1558,25 @@
         <v>4</v>
       </c>
       <c r="S29" t="s">
+        <v>87</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
         <v>88</v>
       </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>89</v>
       </c>
-      <c r="W29" t="s">
-        <v>90</v>
-      </c>
       <c r="AA29" t="s">
         <v>13</v>
       </c>
       <c r="AB29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="18:29" x14ac:dyDescent="0.2">
@@ -1578,51 +1584,45 @@
         <v>4</v>
       </c>
       <c r="S30" t="s">
+        <v>87</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
         <v>88</v>
       </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>89</v>
       </c>
-      <c r="W30" t="s">
-        <v>90</v>
-      </c>
       <c r="AA30" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="AB30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R31" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="S31" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="U31" t="s">
+        <v>99</v>
       </c>
       <c r="V31" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="W31" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB31">
-        <v>14</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="18:29" x14ac:dyDescent="0.2">
@@ -1635,14 +1635,17 @@
       <c r="T32">
         <v>2</v>
       </c>
-      <c r="U32" t="s">
-        <v>100</v>
-      </c>
       <c r="V32" t="s">
         <v>57</v>
       </c>
       <c r="W32" t="s">
         <v>13</v>
+      </c>
+      <c r="X32" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="18:29" x14ac:dyDescent="0.2">
@@ -1662,10 +1665,10 @@
         <v>13</v>
       </c>
       <c r="X33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y33" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="18:29" x14ac:dyDescent="0.2">
@@ -1684,11 +1687,8 @@
       <c r="W34" t="s">
         <v>13</v>
       </c>
-      <c r="X34" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>58</v>
+      <c r="Z34" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="18:29" x14ac:dyDescent="0.2">
@@ -1707,7 +1707,13 @@
       <c r="W35" t="s">
         <v>13</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1731,10 +1737,10 @@
         <v>13</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="18:29" x14ac:dyDescent="0.2">
@@ -1742,25 +1748,22 @@
         <v>40</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V37" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="W37" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB37">
-        <v>2</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="X37" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="18:29" x14ac:dyDescent="0.2">
@@ -1780,10 +1783,10 @@
         <v>37</v>
       </c>
       <c r="X38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y38" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="18:29" x14ac:dyDescent="0.2">
@@ -1802,11 +1805,8 @@
       <c r="W39" t="s">
         <v>37</v>
       </c>
-      <c r="X39" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>41</v>
+      <c r="Z39" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="18:29" x14ac:dyDescent="0.2">
@@ -1825,8 +1825,14 @@
       <c r="W40" t="s">
         <v>37</v>
       </c>
-      <c r="Z40" t="s">
-        <v>104</v>
+      <c r="AA40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="18:29" x14ac:dyDescent="0.2">
@@ -1849,10 +1855,10 @@
         <v>13</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="18:29" x14ac:dyDescent="0.2">
@@ -1875,10 +1881,10 @@
         <v>13</v>
       </c>
       <c r="AB42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="18:29" x14ac:dyDescent="0.2">
@@ -1901,10 +1907,10 @@
         <v>13</v>
       </c>
       <c r="AB43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="18:29" x14ac:dyDescent="0.2">
@@ -1927,36 +1933,33 @@
         <v>13</v>
       </c>
       <c r="AB44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R45" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="S45" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V45" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W45" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB45">
-        <v>5</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>103</v>
+        <v>13</v>
+      </c>
+      <c r="X45" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="18:29" x14ac:dyDescent="0.2">
@@ -1976,7 +1979,7 @@
         <v>13</v>
       </c>
       <c r="X46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y46" t="s">
         <v>35</v>
@@ -1998,11 +2001,8 @@
       <c r="W47" t="s">
         <v>13</v>
       </c>
-      <c r="X47" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>35</v>
+      <c r="Z47" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="18:29" x14ac:dyDescent="0.2">
@@ -2021,8 +2021,14 @@
       <c r="W48" t="s">
         <v>13</v>
       </c>
-      <c r="Z48" t="s">
-        <v>105</v>
+      <c r="AA48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="18:29" x14ac:dyDescent="0.2">
@@ -2045,10 +2051,10 @@
         <v>13</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="18:29" x14ac:dyDescent="0.2">
@@ -2056,25 +2062,22 @@
         <v>16</v>
       </c>
       <c r="S50" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="W50" t="s">
         <v>13</v>
       </c>
-      <c r="AA50" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB50">
-        <v>2</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>103</v>
+      <c r="X50" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="18:29" x14ac:dyDescent="0.2">
@@ -2094,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="X51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y51" t="s">
         <v>0</v>
@@ -2116,11 +2119,8 @@
       <c r="W52" t="s">
         <v>13</v>
       </c>
-      <c r="X52" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>0</v>
+      <c r="Z52" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="18:29" x14ac:dyDescent="0.2">
@@ -2199,8 +2199,14 @@
       <c r="W56" t="s">
         <v>13</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>109</v>
+      </c>
+      <c r="AB56">
+        <v>1</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="18:29" x14ac:dyDescent="0.2">
@@ -2223,10 +2229,10 @@
         <v>110</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="18:29" x14ac:dyDescent="0.2">
@@ -2234,25 +2240,22 @@
         <v>16</v>
       </c>
       <c r="S58" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="T58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V58" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="W58" t="s">
         <v>13</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="X58" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y58" t="s">
         <v>111</v>
-      </c>
-      <c r="AB58">
-        <v>2</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="59" spans="18:29" x14ac:dyDescent="0.2">
@@ -2260,22 +2263,22 @@
         <v>16</v>
       </c>
       <c r="S59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T59">
         <v>6</v>
       </c>
       <c r="V59" t="s">
+        <v>64</v>
+      </c>
+      <c r="W59" t="s">
+        <v>13</v>
+      </c>
+      <c r="X59" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y59" t="s">
         <v>65</v>
-      </c>
-      <c r="W59" t="s">
-        <v>13</v>
-      </c>
-      <c r="X59" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="60" spans="18:29" x14ac:dyDescent="0.2">
@@ -2283,22 +2286,25 @@
         <v>16</v>
       </c>
       <c r="S60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T60">
         <v>6</v>
       </c>
       <c r="V60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W60" t="s">
         <v>13</v>
       </c>
-      <c r="X60" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>66</v>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="18:29" x14ac:dyDescent="0.2">
@@ -2306,25 +2312,25 @@
         <v>16</v>
       </c>
       <c r="S61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T61">
         <v>6</v>
       </c>
       <c r="V61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W61" t="s">
         <v>13</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="18:29" x14ac:dyDescent="0.2">
@@ -2332,25 +2338,25 @@
         <v>16</v>
       </c>
       <c r="S62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T62">
         <v>6</v>
       </c>
       <c r="V62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W62" t="s">
         <v>13</v>
       </c>
       <c r="AA62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="18:29" x14ac:dyDescent="0.2">
@@ -2358,25 +2364,22 @@
         <v>16</v>
       </c>
       <c r="S63" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="T63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V63" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="W63" t="s">
         <v>13</v>
       </c>
-      <c r="AA63">
-        <v>3</v>
-      </c>
-      <c r="AB63">
-        <v>3</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>103</v>
+      <c r="X63" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="18:29" x14ac:dyDescent="0.2">
@@ -2396,10 +2399,10 @@
         <v>13</v>
       </c>
       <c r="X64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y64" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="18:29" x14ac:dyDescent="0.2">
@@ -2418,11 +2421,8 @@
       <c r="W65" t="s">
         <v>13</v>
       </c>
-      <c r="X65" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>31</v>
+      <c r="Z65" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -2481,8 +2481,14 @@
       <c r="W68" t="s">
         <v>13</v>
       </c>
-      <c r="Z68" t="s">
-        <v>115</v>
+      <c r="AA68" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="18:29" x14ac:dyDescent="0.2">
@@ -2505,10 +2511,10 @@
         <v>110</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="18:29" x14ac:dyDescent="0.2">
@@ -2516,25 +2522,22 @@
         <v>16</v>
       </c>
       <c r="S70" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="T70">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V70" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="W70" t="s">
         <v>13</v>
       </c>
-      <c r="AA70" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB70">
-        <v>2</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>103</v>
+      <c r="X70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -2554,7 +2557,7 @@
         <v>13</v>
       </c>
       <c r="X71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y71" t="s">
         <v>17</v>
@@ -2576,11 +2579,8 @@
       <c r="W72" t="s">
         <v>13</v>
       </c>
-      <c r="X72" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>17</v>
+      <c r="Z72" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="18:29" x14ac:dyDescent="0.2">
@@ -2599,8 +2599,14 @@
       <c r="W73" t="s">
         <v>13</v>
       </c>
-      <c r="Z73" t="s">
-        <v>116</v>
+      <c r="AA73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB73">
+        <v>1</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
@@ -2623,36 +2629,30 @@
         <v>13</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R75" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="S75" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T75">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="U75" t="s">
+        <v>116</v>
       </c>
       <c r="V75" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W75" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB75">
-        <v>2</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -2665,14 +2665,17 @@
       <c r="T76">
         <v>9</v>
       </c>
-      <c r="U76" t="s">
-        <v>117</v>
-      </c>
       <c r="V76" t="s">
         <v>9</v>
       </c>
       <c r="W76" t="s">
         <v>7</v>
+      </c>
+      <c r="X76" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -2692,10 +2695,10 @@
         <v>7</v>
       </c>
       <c r="X77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y77" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -2714,11 +2717,8 @@
       <c r="W78" t="s">
         <v>7</v>
       </c>
-      <c r="X78" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>11</v>
+      <c r="Z78" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -2757,8 +2757,14 @@
       <c r="W80" t="s">
         <v>7</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>119</v>
+      </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="18:29" x14ac:dyDescent="0.2">
@@ -2778,13 +2784,13 @@
         <v>7</v>
       </c>
       <c r="AA81" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC81" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -2804,13 +2810,13 @@
         <v>7</v>
       </c>
       <c r="AA82" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AB82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="18:29" x14ac:dyDescent="0.2">
@@ -2830,13 +2836,13 @@
         <v>7</v>
       </c>
       <c r="AA83" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="AB83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC83" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -2856,13 +2862,13 @@
         <v>7</v>
       </c>
       <c r="AA84" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="AB84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC84" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
@@ -2882,13 +2888,13 @@
         <v>7</v>
       </c>
       <c r="AA85" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="AB85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
@@ -2911,10 +2917,10 @@
         <v>122</v>
       </c>
       <c r="AB86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="18:29" x14ac:dyDescent="0.2">
@@ -2934,421 +2940,403 @@
         <v>7</v>
       </c>
       <c r="AA87" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AB87">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R88" t="s">
+        <v>72</v>
+      </c>
+      <c r="S88" t="s">
+        <v>73</v>
+      </c>
+      <c r="T88">
         <v>10</v>
       </c>
-      <c r="S88" t="s">
-        <v>11</v>
-      </c>
-      <c r="T88">
-        <v>9</v>
-      </c>
       <c r="V88" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="W88" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB88">
-        <v>8</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>103</v>
+        <v>67</v>
+      </c>
+      <c r="X88" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R89" t="s">
+        <v>72</v>
+      </c>
+      <c r="S89" t="s">
         <v>73</v>
-      </c>
-      <c r="S89" t="s">
-        <v>74</v>
       </c>
       <c r="T89">
         <v>10</v>
       </c>
       <c r="V89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y89" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R90" t="s">
+        <v>72</v>
+      </c>
+      <c r="S90" t="s">
         <v>73</v>
-      </c>
-      <c r="S90" t="s">
-        <v>74</v>
       </c>
       <c r="T90">
         <v>10</v>
       </c>
       <c r="V90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X90" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="Y90" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R91" t="s">
+        <v>72</v>
+      </c>
+      <c r="S91" t="s">
         <v>73</v>
-      </c>
-      <c r="S91" t="s">
-        <v>74</v>
       </c>
       <c r="T91">
         <v>10</v>
       </c>
       <c r="V91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y91" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R92" t="s">
+        <v>72</v>
+      </c>
+      <c r="S92" t="s">
         <v>73</v>
-      </c>
-      <c r="S92" t="s">
-        <v>74</v>
       </c>
       <c r="T92">
         <v>10</v>
       </c>
       <c r="V92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X92" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="Y92" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R93" t="s">
+        <v>72</v>
+      </c>
+      <c r="S93" t="s">
         <v>73</v>
-      </c>
-      <c r="S93" t="s">
-        <v>74</v>
       </c>
       <c r="T93">
         <v>10</v>
       </c>
       <c r="V93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X93" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y93" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R94" t="s">
+        <v>72</v>
+      </c>
+      <c r="S94" t="s">
         <v>73</v>
-      </c>
-      <c r="S94" t="s">
-        <v>74</v>
       </c>
       <c r="T94">
         <v>10</v>
       </c>
       <c r="V94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W94" t="s">
+        <v>67</v>
+      </c>
+      <c r="X94" t="s">
         <v>68</v>
       </c>
-      <c r="X94" t="s">
-        <v>83</v>
-      </c>
       <c r="Y94" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R95" t="s">
+        <v>72</v>
+      </c>
+      <c r="S95" t="s">
         <v>73</v>
-      </c>
-      <c r="S95" t="s">
-        <v>74</v>
       </c>
       <c r="T95">
         <v>10</v>
       </c>
       <c r="V95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X95" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Y95" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R96" t="s">
+        <v>72</v>
+      </c>
+      <c r="S96" t="s">
         <v>73</v>
-      </c>
-      <c r="S96" t="s">
-        <v>74</v>
       </c>
       <c r="T96">
         <v>10</v>
       </c>
       <c r="V96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X96" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Y96" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R97" t="s">
+        <v>72</v>
+      </c>
+      <c r="S97" t="s">
         <v>73</v>
-      </c>
-      <c r="S97" t="s">
-        <v>74</v>
       </c>
       <c r="T97">
         <v>10</v>
       </c>
       <c r="V97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X97" t="s">
         <v>75</v>
       </c>
       <c r="Y97" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R98" t="s">
+        <v>72</v>
+      </c>
+      <c r="S98" t="s">
         <v>73</v>
-      </c>
-      <c r="S98" t="s">
-        <v>74</v>
       </c>
       <c r="T98">
         <v>10</v>
       </c>
       <c r="V98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X98" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R99" t="s">
+        <v>72</v>
+      </c>
+      <c r="S99" t="s">
         <v>73</v>
-      </c>
-      <c r="S99" t="s">
-        <v>74</v>
       </c>
       <c r="T99">
         <v>10</v>
       </c>
       <c r="V99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X99" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Y99" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R100" t="s">
+        <v>72</v>
+      </c>
+      <c r="S100" t="s">
         <v>73</v>
-      </c>
-      <c r="S100" t="s">
-        <v>74</v>
       </c>
       <c r="T100">
         <v>10</v>
       </c>
       <c r="V100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W100" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X100" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y100" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R101" t="s">
+        <v>72</v>
+      </c>
+      <c r="S101" t="s">
         <v>73</v>
-      </c>
-      <c r="S101" t="s">
-        <v>74</v>
       </c>
       <c r="T101">
         <v>10</v>
       </c>
       <c r="V101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W101" t="s">
-        <v>68</v>
-      </c>
-      <c r="X101" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB101">
+        <v>1</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R102" t="s">
+        <v>72</v>
+      </c>
+      <c r="S102" t="s">
         <v>73</v>
-      </c>
-      <c r="S102" t="s">
-        <v>74</v>
       </c>
       <c r="T102">
         <v>10</v>
       </c>
       <c r="V102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA102" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="AB102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="18:36" x14ac:dyDescent="0.2">
       <c r="R103" t="s">
+        <v>72</v>
+      </c>
+      <c r="S103" t="s">
         <v>73</v>
-      </c>
-      <c r="S103" t="s">
-        <v>74</v>
       </c>
       <c r="T103">
         <v>10</v>
       </c>
       <c r="V103" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA103" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="AB103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC103" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="R104" t="s">
-        <v>73</v>
-      </c>
-      <c r="S104" t="s">
-        <v>74</v>
-      </c>
-      <c r="T104">
-        <v>10</v>
-      </c>
-      <c r="V104" t="s">
-        <v>72</v>
-      </c>
-      <c r="W104" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA104" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB104">
-        <v>3</v>
-      </c>
-      <c r="AC104" t="s">
+      <c r="AD104" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE104" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="105" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD105" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AE105" t="s">
         <v>130</v>
@@ -3356,7 +3344,7 @@
     </row>
     <row r="106" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD106" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AE106" t="s">
         <v>131</v>
@@ -3364,7 +3352,7 @@
     </row>
     <row r="107" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD107" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE107" t="s">
         <v>132</v>
@@ -3372,18 +3360,27 @@
     </row>
     <row r="108" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD108" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="AE108" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="109" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD109" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE109" t="s">
+      <c r="AF109">
+        <v>1</v>
+      </c>
+      <c r="AG109" t="s">
         <v>134</v>
+      </c>
+      <c r="AH109">
+        <v>1</v>
+      </c>
+      <c r="AI109">
+        <v>1</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="18:36" x14ac:dyDescent="0.2">
@@ -3391,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="AG110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH110">
         <v>1</v>
@@ -3400,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="AJ110" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="18:36" x14ac:dyDescent="0.2">
@@ -3408,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="AG111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH111">
         <v>1</v>
@@ -3417,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="AJ111" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="18:36" x14ac:dyDescent="0.2">
@@ -3425,16 +3422,16 @@
         <v>1</v>
       </c>
       <c r="AG112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH112">
         <v>1</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ112" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="32:36" x14ac:dyDescent="0.2">
@@ -3442,16 +3439,16 @@
         <v>1</v>
       </c>
       <c r="AG113" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH113">
         <v>1</v>
       </c>
       <c r="AI113">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AJ113" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="32:36" x14ac:dyDescent="0.2">
@@ -3459,16 +3456,16 @@
         <v>1</v>
       </c>
       <c r="AG114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH114">
         <v>1</v>
       </c>
       <c r="AI114">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ114" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="32:36" x14ac:dyDescent="0.2">
@@ -3476,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="AG115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH115">
         <v>1</v>
@@ -3485,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="AJ115" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="32:36" x14ac:dyDescent="0.2">
@@ -3493,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="AG116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH116">
         <v>1</v>
@@ -3502,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="AJ116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="32:36" x14ac:dyDescent="0.2">
@@ -3510,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="AG117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH117">
         <v>1</v>
@@ -3519,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="AJ117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="32:36" x14ac:dyDescent="0.2">
@@ -3527,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="AG118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH118">
         <v>1</v>
@@ -3536,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="AJ118" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="32:36" x14ac:dyDescent="0.2">
@@ -3544,16 +3541,16 @@
         <v>1</v>
       </c>
       <c r="AG119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH119">
         <v>1</v>
       </c>
       <c r="AI119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ119" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="32:36" x14ac:dyDescent="0.2">
@@ -3561,16 +3558,16 @@
         <v>1</v>
       </c>
       <c r="AG120" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH120">
         <v>1</v>
       </c>
       <c r="AI120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ120" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="32:36" x14ac:dyDescent="0.2">
@@ -3578,33 +3575,33 @@
         <v>1</v>
       </c>
       <c r="AG121" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH121">
         <v>1</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ121" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG122" t="s">
         <v>135</v>
       </c>
       <c r="AH122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI122">
         <v>2</v>
       </c>
       <c r="AJ122" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="32:36" x14ac:dyDescent="0.2">
@@ -3612,13 +3609,13 @@
         <v>2</v>
       </c>
       <c r="AG123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH123">
         <v>2</v>
       </c>
       <c r="AI123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ123" t="s">
         <v>1</v>
@@ -3629,13 +3626,13 @@
         <v>2</v>
       </c>
       <c r="AG124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH124">
         <v>2</v>
       </c>
       <c r="AI124">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ124" t="s">
         <v>1</v>
@@ -3646,13 +3643,13 @@
         <v>2</v>
       </c>
       <c r="AG125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH125">
         <v>2</v>
       </c>
       <c r="AI125">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ125" t="s">
         <v>1</v>
@@ -3663,13 +3660,13 @@
         <v>2</v>
       </c>
       <c r="AG126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH126">
         <v>2</v>
       </c>
       <c r="AI126">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ126" t="s">
         <v>1</v>
@@ -3680,13 +3677,13 @@
         <v>2</v>
       </c>
       <c r="AG127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH127">
         <v>2</v>
       </c>
       <c r="AI127">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ127" t="s">
         <v>1</v>
@@ -3694,33 +3691,33 @@
     </row>
     <row r="128" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG128" t="s">
         <v>136</v>
       </c>
       <c r="AH128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI128">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ128" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG129" t="s">
         <v>137</v>
       </c>
       <c r="AH129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ129" t="s">
         <v>6</v>
@@ -3731,16 +3728,16 @@
         <v>4</v>
       </c>
       <c r="AG130" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH130">
         <v>4</v>
       </c>
       <c r="AI130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ130" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="32:36" x14ac:dyDescent="0.2">
@@ -3748,7 +3745,7 @@
         <v>4</v>
       </c>
       <c r="AG131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH131">
         <v>4</v>
@@ -3757,38 +3754,38 @@
         <v>1</v>
       </c>
       <c r="AJ131" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG132" t="s">
         <v>138</v>
       </c>
       <c r="AH132">
+        <v>5</v>
+      </c>
+      <c r="AI132">
         <v>4</v>
       </c>
-      <c r="AI132">
-        <v>1</v>
-      </c>
       <c r="AJ132" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG133" t="s">
         <v>139</v>
       </c>
       <c r="AH133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI133">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ133" t="s">
         <v>6</v>
@@ -3799,16 +3796,16 @@
         <v>6</v>
       </c>
       <c r="AG134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH134">
         <v>6</v>
       </c>
       <c r="AI134">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ134" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="32:36" x14ac:dyDescent="0.2">
@@ -3816,33 +3813,33 @@
         <v>6</v>
       </c>
       <c r="AG135" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH135">
         <v>6</v>
       </c>
       <c r="AI135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ135" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG136" t="s">
         <v>140</v>
       </c>
       <c r="AH136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ136" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="32:36" x14ac:dyDescent="0.2">
@@ -3850,33 +3847,33 @@
         <v>7</v>
       </c>
       <c r="AG137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH137">
         <v>7</v>
       </c>
       <c r="AI137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ137" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF138">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG138" t="s">
         <v>141</v>
       </c>
       <c r="AH138">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ138" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="32:36" x14ac:dyDescent="0.2">
@@ -3884,33 +3881,33 @@
         <v>8</v>
       </c>
       <c r="AG139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH139">
         <v>8</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ139" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF140">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG140" t="s">
         <v>142</v>
       </c>
       <c r="AH140">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI140">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ140" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="32:36" x14ac:dyDescent="0.2">
@@ -3918,33 +3915,33 @@
         <v>9</v>
       </c>
       <c r="AG141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AH141">
         <v>9</v>
       </c>
       <c r="AI141">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ141" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF142">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG142" t="s">
         <v>143</v>
       </c>
       <c r="AH142">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI142">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ142" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="32:36" x14ac:dyDescent="0.2">
@@ -3952,33 +3949,33 @@
         <v>10</v>
       </c>
       <c r="AG143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AH143">
         <v>10</v>
       </c>
       <c r="AI143">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ143" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF144">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG144" t="s">
         <v>144</v>
       </c>
       <c r="AH144">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI144">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ144" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="32:36" x14ac:dyDescent="0.2">
@@ -3986,33 +3983,33 @@
         <v>11</v>
       </c>
       <c r="AG145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH145">
         <v>11</v>
       </c>
       <c r="AI145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ145" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF146">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG146" t="s">
         <v>145</v>
       </c>
       <c r="AH146">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI146">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ146" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="32:36" x14ac:dyDescent="0.2">
@@ -4020,33 +4017,33 @@
         <v>12</v>
       </c>
       <c r="AG147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH147">
         <v>12</v>
       </c>
       <c r="AI147">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AJ147" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF148">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG148" t="s">
         <v>146</v>
       </c>
       <c r="AH148">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ148" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="32:36" x14ac:dyDescent="0.2">
@@ -4054,33 +4051,33 @@
         <v>13</v>
       </c>
       <c r="AG149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH149">
         <v>13</v>
       </c>
       <c r="AI149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ149" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF150">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG150" t="s">
         <v>147</v>
       </c>
       <c r="AH150">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI150">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AJ150" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="32:36" x14ac:dyDescent="0.2">
@@ -4088,33 +4085,33 @@
         <v>14</v>
       </c>
       <c r="AG151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH151">
         <v>14</v>
       </c>
       <c r="AI151">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AJ151" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF152">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG152" t="s">
         <v>148</v>
       </c>
       <c r="AH152">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ152" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="32:36" x14ac:dyDescent="0.2">
@@ -4122,7 +4119,7 @@
         <v>15</v>
       </c>
       <c r="AG153" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH153">
         <v>15</v>
@@ -4131,38 +4128,38 @@
         <v>1</v>
       </c>
       <c r="AJ153" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF154">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG154" t="s">
         <v>149</v>
       </c>
       <c r="AH154">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI154">
         <v>1</v>
       </c>
       <c r="AJ154" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF155">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG155" t="s">
         <v>150</v>
       </c>
       <c r="AH155">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ155" t="s">
         <v>36</v>
@@ -4170,33 +4167,33 @@
     </row>
     <row r="156" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF156">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG156" t="s">
         <v>151</v>
       </c>
       <c r="AH156">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ156" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF157">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG157" t="s">
         <v>152</v>
       </c>
       <c r="AH157">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ157" t="s">
         <v>42</v>
@@ -4204,16 +4201,16 @@
     </row>
     <row r="158" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF158">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG158" t="s">
         <v>153</v>
       </c>
       <c r="AH158">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI158">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ158" t="s">
         <v>42</v>
@@ -4224,47 +4221,47 @@
         <v>20</v>
       </c>
       <c r="AG159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH159">
         <v>20</v>
       </c>
       <c r="AI159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ159" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF160">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG160" t="s">
         <v>154</v>
       </c>
       <c r="AH160">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI160">
         <v>1</v>
       </c>
       <c r="AJ160" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF161">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG161" t="s">
         <v>155</v>
       </c>
       <c r="AH161">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ161" t="s">
         <v>43</v>
@@ -4272,33 +4269,33 @@
     </row>
     <row r="162" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF162">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG162" t="s">
         <v>156</v>
       </c>
       <c r="AH162">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF163">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG163" t="s">
         <v>157</v>
       </c>
       <c r="AH163">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ163" t="s">
         <v>44</v>
@@ -4306,19 +4303,19 @@
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF164">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG164" t="s">
         <v>158</v>
       </c>
       <c r="AH164">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ164" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
@@ -4326,33 +4323,33 @@
         <v>25</v>
       </c>
       <c r="AG165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH165">
         <v>25</v>
       </c>
       <c r="AI165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ165" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF166">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG166" t="s">
         <v>159</v>
       </c>
       <c r="AH166">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI166">
         <v>2</v>
       </c>
       <c r="AJ166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
@@ -4360,33 +4357,33 @@
         <v>26</v>
       </c>
       <c r="AG167" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AH167">
         <v>26</v>
       </c>
       <c r="AI167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ167" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF168">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG168" t="s">
         <v>160</v>
       </c>
       <c r="AH168">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ168" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="32:36" x14ac:dyDescent="0.2">
@@ -4394,33 +4391,33 @@
         <v>27</v>
       </c>
       <c r="AG169" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AH169">
         <v>27</v>
       </c>
       <c r="AI169">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ169" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF170">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG170" t="s">
         <v>161</v>
       </c>
       <c r="AH170">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI170">
         <v>4</v>
       </c>
       <c r="AJ170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171" spans="32:36" x14ac:dyDescent="0.2">
@@ -4428,47 +4425,47 @@
         <v>28</v>
       </c>
       <c r="AG171" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AH171">
         <v>28</v>
       </c>
       <c r="AI171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ171" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF172">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG172" t="s">
         <v>162</v>
       </c>
       <c r="AH172">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF173">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG173" t="s">
         <v>163</v>
       </c>
       <c r="AH173">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ173" t="s">
         <v>49</v>
@@ -4476,16 +4473,16 @@
     </row>
     <row r="174" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF174">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG174" t="s">
         <v>164</v>
       </c>
       <c r="AH174">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ174" t="s">
         <v>49</v>
@@ -4493,16 +4490,16 @@
     </row>
     <row r="175" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF175">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG175" t="s">
         <v>165</v>
       </c>
       <c r="AH175">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ175" t="s">
         <v>49</v>
@@ -4513,33 +4510,33 @@
         <v>32</v>
       </c>
       <c r="AG176" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AH176">
         <v>32</v>
       </c>
       <c r="AI176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ176" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF177">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG177" t="s">
         <v>166</v>
       </c>
       <c r="AH177">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ177" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="32:36" x14ac:dyDescent="0.2">
@@ -4547,16 +4544,16 @@
         <v>33</v>
       </c>
       <c r="AG178" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH178">
         <v>33</v>
       </c>
       <c r="AI178">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ178" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
@@ -4564,33 +4561,33 @@
         <v>33</v>
       </c>
       <c r="AG179" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH179">
         <v>33</v>
       </c>
       <c r="AI179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ179" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF180">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AG180" t="s">
         <v>167</v>
       </c>
       <c r="AH180">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI180">
         <v>2</v>
       </c>
       <c r="AJ180" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
@@ -4598,7 +4595,7 @@
         <v>34</v>
       </c>
       <c r="AG181" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH181">
         <v>34</v>
@@ -4607,24 +4604,24 @@
         <v>2</v>
       </c>
       <c r="AJ181" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF182">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG182" t="s">
         <v>168</v>
       </c>
       <c r="AH182">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ182" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
@@ -4632,16 +4629,16 @@
         <v>35</v>
       </c>
       <c r="AG183" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AH183">
         <v>35</v>
       </c>
       <c r="AI183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ183" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="184" spans="32:36" x14ac:dyDescent="0.2">
@@ -4649,16 +4646,16 @@
         <v>35</v>
       </c>
       <c r="AG184" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AH184">
         <v>35</v>
       </c>
       <c r="AI184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ184" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
@@ -4666,7 +4663,7 @@
         <v>35</v>
       </c>
       <c r="AG185" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AH185">
         <v>35</v>
@@ -4675,24 +4672,24 @@
         <v>1</v>
       </c>
       <c r="AJ185" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG186" t="s">
         <v>169</v>
       </c>
       <c r="AH186">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AI186">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ186" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="32:36" x14ac:dyDescent="0.2">
@@ -4700,33 +4697,33 @@
         <v>36</v>
       </c>
       <c r="AG187" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AH187">
         <v>36</v>
       </c>
       <c r="AI187">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ187" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF188">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG188" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="AH188">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ188" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="32:36" x14ac:dyDescent="0.2">
@@ -4734,7 +4731,7 @@
         <v>37</v>
       </c>
       <c r="AG189" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH189">
         <v>37</v>
@@ -4743,7 +4740,7 @@
         <v>2</v>
       </c>
       <c r="AJ189" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="32:36" x14ac:dyDescent="0.2">
@@ -4751,7 +4748,7 @@
         <v>37</v>
       </c>
       <c r="AG190" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH190">
         <v>37</v>
@@ -4760,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="AJ190" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="32:36" x14ac:dyDescent="0.2">
@@ -4768,7 +4765,7 @@
         <v>37</v>
       </c>
       <c r="AG191" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH191">
         <v>37</v>
@@ -4777,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="AJ191" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="192" spans="32:36" x14ac:dyDescent="0.2">
@@ -4785,16 +4782,16 @@
         <v>37</v>
       </c>
       <c r="AG192" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH192">
         <v>37</v>
       </c>
       <c r="AI192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ192" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
@@ -4802,16 +4799,16 @@
         <v>37</v>
       </c>
       <c r="AG193" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH193">
         <v>37</v>
       </c>
       <c r="AI193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ193" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
@@ -4819,7 +4816,7 @@
         <v>37</v>
       </c>
       <c r="AG194" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH194">
         <v>37</v>
@@ -4828,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="AJ194" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
@@ -4836,7 +4833,7 @@
         <v>37</v>
       </c>
       <c r="AG195" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH195">
         <v>37</v>
@@ -4845,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="AJ195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
@@ -4853,7 +4850,7 @@
         <v>37</v>
       </c>
       <c r="AG196" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH196">
         <v>37</v>
@@ -4862,7 +4859,7 @@
         <v>2</v>
       </c>
       <c r="AJ196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
@@ -4870,7 +4867,7 @@
         <v>37</v>
       </c>
       <c r="AG197" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH197">
         <v>37</v>
@@ -4879,7 +4876,7 @@
         <v>2</v>
       </c>
       <c r="AJ197" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
@@ -4887,7 +4884,7 @@
         <v>37</v>
       </c>
       <c r="AG198" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH198">
         <v>37</v>
@@ -4896,7 +4893,7 @@
         <v>2</v>
       </c>
       <c r="AJ198" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
@@ -4904,7 +4901,7 @@
         <v>37</v>
       </c>
       <c r="AG199" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH199">
         <v>37</v>
@@ -4913,7 +4910,7 @@
         <v>2</v>
       </c>
       <c r="AJ199" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
@@ -4921,16 +4918,16 @@
         <v>37</v>
       </c>
       <c r="AG200" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH200">
         <v>37</v>
       </c>
       <c r="AI200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ200" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
@@ -4938,33 +4935,33 @@
         <v>37</v>
       </c>
       <c r="AG201" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH201">
         <v>37</v>
       </c>
       <c r="AI201">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ201" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF202">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG202" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AH202">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI202">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ202" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="203" spans="32:36" x14ac:dyDescent="0.2">
@@ -4972,38 +4969,21 @@
         <v>38</v>
       </c>
       <c r="AG203" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH203">
         <v>38</v>
       </c>
       <c r="AI203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ203" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="204" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF204">
-        <v>38</v>
-      </c>
-      <c r="AG204" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH204">
-        <v>38</v>
-      </c>
-      <c r="AI204">
-        <v>1</v>
-      </c>
-      <c r="AJ204" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT221">
-    <sortCondition ref="A1:A221"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT220">
+    <sortCondition ref="A1:A220"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MidiThru4/midithru4_bom.xlsx
+++ b/MidiThru4/midithru4_bom.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9551AE4C-1241-E742-B2D5-AF974E05FE5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1DF03-C189-3545-A40E-3AC278A18C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="-19640" windowWidth="28040" windowHeight="16260" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
+    <workbookView xWindow="4720" yWindow="-19660" windowWidth="28040" windowHeight="16260" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru4!$A$1:$E$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru4!$A$1:$E$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="202">
   <si>
     <t>D</t>
   </si>
@@ -636,6 +636,9 @@
   </si>
   <si>
     <t>MidiThru/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -835,6 +838,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -876,8 +885,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330199</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123722</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1227,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ188"/>
+  <dimension ref="A1:AJ189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E49" sqref="A1:E49"/>
+      <selection activeCell="A45" sqref="A45:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1294,13 +1303,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -2569,13 +2578,13 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
       <c r="R42" t="s">
         <v>13</v>
       </c>
@@ -2602,12 +2611,12 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="10"/>
       <c r="R43" t="s">
         <v>13</v>
@@ -2632,13 +2641,13 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
       <c r="R44" t="s">
         <v>13</v>
       </c>
@@ -2661,38 +2670,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="R45" t="s">
-        <v>13</v>
-      </c>
-      <c r="S45" t="s">
-        <v>55</v>
-      </c>
-      <c r="T45">
-        <v>6</v>
-      </c>
-      <c r="V45" t="s">
-        <v>54</v>
-      </c>
-      <c r="W45" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA45">
-        <v>1</v>
-      </c>
-      <c r="AB45">
-        <v>1</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
       <c r="E46" s="9"/>
       <c r="R46" t="s">
         <v>13</v>
@@ -2710,17 +2700,17 @@
         <v>11</v>
       </c>
       <c r="AA46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC46" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
+      <c r="A47" s="8"/>
       <c r="E47" s="9"/>
       <c r="R47" t="s">
         <v>13</v>
@@ -2738,44 +2728,49 @@
         <v>11</v>
       </c>
       <c r="AA47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC47" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
+      <c r="A48" s="11"/>
+      <c r="E48" s="9"/>
       <c r="R48" t="s">
         <v>13</v>
       </c>
       <c r="S48" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="T48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V48" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="W48" t="s">
         <v>11</v>
       </c>
-      <c r="X48" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="AA48">
+        <v>3</v>
+      </c>
+      <c r="AB48">
+        <v>3</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
       <c r="R49" t="s">
         <v>13</v>
       </c>
@@ -2792,13 +2787,13 @@
         <v>11</v>
       </c>
       <c r="X49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="18:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R50" t="s">
         <v>13</v>
       </c>
@@ -2814,11 +2809,14 @@
       <c r="W50" t="s">
         <v>11</v>
       </c>
-      <c r="Z50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="X50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R51" t="s">
         <v>13</v>
       </c>
@@ -2835,10 +2833,10 @@
         <v>11</v>
       </c>
       <c r="Z51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="18:29" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R52" t="s">
         <v>13</v>
       </c>
@@ -2855,10 +2853,10 @@
         <v>11</v>
       </c>
       <c r="Z52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="18:29" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R53" t="s">
         <v>13</v>
       </c>
@@ -2874,17 +2872,11 @@
       <c r="W53" t="s">
         <v>11</v>
       </c>
-      <c r="AA53" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB53">
-        <v>1</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="Z53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R54" t="s">
         <v>13</v>
       </c>
@@ -2901,39 +2893,42 @@
         <v>11</v>
       </c>
       <c r="AA54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC54" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="18:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R55" t="s">
         <v>13</v>
       </c>
       <c r="S55" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="T55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V55" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="W55" t="s">
         <v>11</v>
       </c>
-      <c r="X55" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="AA55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB55">
+        <v>2</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R56" t="s">
         <v>13</v>
       </c>
@@ -2950,13 +2945,13 @@
         <v>11</v>
       </c>
       <c r="X56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="18:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R57" t="s">
         <v>13</v>
       </c>
@@ -2972,11 +2967,14 @@
       <c r="W57" t="s">
         <v>11</v>
       </c>
-      <c r="Z57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="X57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R58" t="s">
         <v>13</v>
       </c>
@@ -2992,17 +2990,11 @@
       <c r="W58" t="s">
         <v>11</v>
       </c>
-      <c r="AA58" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB58">
-        <v>1</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="Z58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R59" t="s">
         <v>13</v>
       </c>
@@ -3022,33 +3014,39 @@
         <v>11</v>
       </c>
       <c r="AB59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="18:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R60" t="s">
+        <v>13</v>
+      </c>
+      <c r="S60" t="s">
+        <v>14</v>
+      </c>
+      <c r="T60">
         <v>8</v>
       </c>
-      <c r="S60" t="s">
-        <v>9</v>
-      </c>
-      <c r="T60">
-        <v>9</v>
-      </c>
-      <c r="U60" t="s">
-        <v>105</v>
-      </c>
       <c r="V60" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="18:29" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB60">
+        <v>2</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R61" t="s">
         <v>8</v>
       </c>
@@ -3058,20 +3056,17 @@
       <c r="T61">
         <v>9</v>
       </c>
+      <c r="U61" t="s">
+        <v>105</v>
+      </c>
       <c r="V61" t="s">
         <v>7</v>
       </c>
       <c r="W61" t="s">
         <v>6</v>
       </c>
-      <c r="X61" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="18:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R62" t="s">
         <v>8</v>
       </c>
@@ -3088,13 +3083,13 @@
         <v>6</v>
       </c>
       <c r="X62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="18:29" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R63" t="s">
         <v>8</v>
       </c>
@@ -3110,11 +3105,14 @@
       <c r="W63" t="s">
         <v>6</v>
       </c>
-      <c r="Z63" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="X63" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R64" t="s">
         <v>8</v>
       </c>
@@ -3131,7 +3129,7 @@
         <v>6</v>
       </c>
       <c r="Z64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="18:29" x14ac:dyDescent="0.2">
@@ -3150,14 +3148,8 @@
       <c r="W65" t="s">
         <v>6</v>
       </c>
-      <c r="AA65" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB65">
-        <v>1</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>109</v>
+      <c r="Z65" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -3177,13 +3169,13 @@
         <v>6</v>
       </c>
       <c r="AA66" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="AB66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="18:29" x14ac:dyDescent="0.2">
@@ -3203,10 +3195,10 @@
         <v>6</v>
       </c>
       <c r="AA67" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC67" t="s">
         <v>91</v>
@@ -3229,13 +3221,13 @@
         <v>6</v>
       </c>
       <c r="AA68" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="AB68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC68" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="18:29" x14ac:dyDescent="0.2">
@@ -3255,13 +3247,13 @@
         <v>6</v>
       </c>
       <c r="AA69" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AB69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC69" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="18:29" x14ac:dyDescent="0.2">
@@ -3281,10 +3273,10 @@
         <v>6</v>
       </c>
       <c r="AA70" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AB70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC70" t="s">
         <v>91</v>
@@ -3307,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="AA71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC71" t="s">
         <v>91</v>
@@ -3333,10 +3325,10 @@
         <v>6</v>
       </c>
       <c r="AA72" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AB72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC72" t="s">
         <v>91</v>
@@ -3344,25 +3336,28 @@
     </row>
     <row r="73" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R73" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="S73" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="T73">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V73" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="W73" t="s">
-        <v>57</v>
-      </c>
-      <c r="X73" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB73">
+        <v>8</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
@@ -3382,10 +3377,10 @@
         <v>57</v>
       </c>
       <c r="X74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
@@ -3405,10 +3400,10 @@
         <v>57</v>
       </c>
       <c r="X75" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="Y75" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -3428,10 +3423,10 @@
         <v>57</v>
       </c>
       <c r="X76" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y76" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -3451,10 +3446,10 @@
         <v>57</v>
       </c>
       <c r="X77" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="Y77" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -3474,10 +3469,10 @@
         <v>57</v>
       </c>
       <c r="X78" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y78" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -3497,10 +3492,10 @@
         <v>57</v>
       </c>
       <c r="X79" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="Y79" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="18:29" x14ac:dyDescent="0.2">
@@ -3520,10 +3515,10 @@
         <v>57</v>
       </c>
       <c r="X80" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="Y80" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="18:36" x14ac:dyDescent="0.2">
@@ -3543,10 +3538,10 @@
         <v>57</v>
       </c>
       <c r="X81" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Y81" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="18:36" x14ac:dyDescent="0.2">
@@ -3566,10 +3561,10 @@
         <v>57</v>
       </c>
       <c r="X82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y82" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="18:36" x14ac:dyDescent="0.2">
@@ -3589,10 +3584,10 @@
         <v>57</v>
       </c>
       <c r="X83" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Y83" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="18:36" x14ac:dyDescent="0.2">
@@ -3612,10 +3607,10 @@
         <v>57</v>
       </c>
       <c r="X84" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y84" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="18:36" x14ac:dyDescent="0.2">
@@ -3635,10 +3630,10 @@
         <v>57</v>
       </c>
       <c r="X85" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y85" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="18:36" x14ac:dyDescent="0.2">
@@ -3657,14 +3652,11 @@
       <c r="W86" t="s">
         <v>57</v>
       </c>
-      <c r="AA86" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB86">
-        <v>1</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>86</v>
+      <c r="X86" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="18:36" x14ac:dyDescent="0.2">
@@ -3684,10 +3676,10 @@
         <v>57</v>
       </c>
       <c r="AA87" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="AB87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC87" t="s">
         <v>86</v>
@@ -3710,70 +3702,79 @@
         <v>57</v>
       </c>
       <c r="AA88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB88">
+        <v>2</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="18:36" x14ac:dyDescent="0.2">
+      <c r="R89" t="s">
+        <v>61</v>
+      </c>
+      <c r="S89" t="s">
+        <v>62</v>
+      </c>
+      <c r="T89">
+        <v>10</v>
+      </c>
+      <c r="V89" t="s">
+        <v>60</v>
+      </c>
+      <c r="W89" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA89" t="s">
         <v>116</v>
       </c>
-      <c r="AB88">
+      <c r="AB89">
         <v>3</v>
       </c>
-      <c r="AC88" t="s">
+      <c r="AC89" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD89" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="90" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD90" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="AE90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD91" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="AE91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD92" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD93" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="18:36" x14ac:dyDescent="0.2">
+      <c r="AD94" t="s">
         <v>61</v>
       </c>
-      <c r="AE93" t="s">
+      <c r="AE94" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AF94">
-        <v>1</v>
-      </c>
-      <c r="AG94" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH94">
-        <v>1</v>
-      </c>
-      <c r="AI94">
-        <v>1</v>
-      </c>
-      <c r="AJ94" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="95" spans="18:36" x14ac:dyDescent="0.2">
@@ -3790,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="AJ95" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="18:36" x14ac:dyDescent="0.2">
@@ -3807,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="AJ96" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="32:36" x14ac:dyDescent="0.2">
@@ -3821,10 +3822,10 @@
         <v>1</v>
       </c>
       <c r="AI97">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ97" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="32:36" x14ac:dyDescent="0.2">
@@ -3838,10 +3839,10 @@
         <v>1</v>
       </c>
       <c r="AI98">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ98" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="32:36" x14ac:dyDescent="0.2">
@@ -3855,10 +3856,10 @@
         <v>1</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ99" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="32:36" x14ac:dyDescent="0.2">
@@ -3875,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="AJ100" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="32:36" x14ac:dyDescent="0.2">
@@ -3892,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="AJ101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="32:36" x14ac:dyDescent="0.2">
@@ -3909,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="AJ102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="32:36" x14ac:dyDescent="0.2">
@@ -3926,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="AJ103" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="32:36" x14ac:dyDescent="0.2">
@@ -3940,10 +3941,10 @@
         <v>1</v>
       </c>
       <c r="AI104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ104" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="32:36" x14ac:dyDescent="0.2">
@@ -3957,10 +3958,10 @@
         <v>1</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ105" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="32:36" x14ac:dyDescent="0.2">
@@ -3974,27 +3975,27 @@
         <v>1</v>
       </c>
       <c r="AI106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ106" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI107">
         <v>2</v>
       </c>
       <c r="AJ107" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="32:36" x14ac:dyDescent="0.2">
@@ -4008,7 +4009,7 @@
         <v>2</v>
       </c>
       <c r="AI108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ108" t="s">
         <v>1</v>
@@ -4025,7 +4026,7 @@
         <v>2</v>
       </c>
       <c r="AI109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ109" t="s">
         <v>1</v>
@@ -4042,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="AI110">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ110" t="s">
         <v>1</v>
@@ -4059,7 +4060,7 @@
         <v>2</v>
       </c>
       <c r="AI111">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ111" t="s">
         <v>1</v>
@@ -4076,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="AI112">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ112" t="s">
         <v>1</v>
@@ -4084,33 +4085,33 @@
     </row>
     <row r="113" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ113" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ114" t="s">
         <v>5</v>
@@ -4127,10 +4128,10 @@
         <v>4</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ115" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="32:36" x14ac:dyDescent="0.2">
@@ -4147,38 +4148,38 @@
         <v>1</v>
       </c>
       <c r="AJ116" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ117" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF118">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH118">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ118" t="s">
         <v>5</v>
@@ -4195,10 +4196,10 @@
         <v>6</v>
       </c>
       <c r="AI119">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ119" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="32:36" x14ac:dyDescent="0.2">
@@ -4212,27 +4213,27 @@
         <v>6</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ120" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF121">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG121" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH121">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ121" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="32:36" x14ac:dyDescent="0.2">
@@ -4246,27 +4247,27 @@
         <v>7</v>
       </c>
       <c r="AI122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ122" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ123" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="32:36" x14ac:dyDescent="0.2">
@@ -4280,27 +4281,27 @@
         <v>8</v>
       </c>
       <c r="AI124">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ124" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF125">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH125">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI125">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ125" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="32:36" x14ac:dyDescent="0.2">
@@ -4314,27 +4315,27 @@
         <v>9</v>
       </c>
       <c r="AI126">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ126" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF127">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH127">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI127">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ127" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="32:36" x14ac:dyDescent="0.2">
@@ -4348,27 +4349,27 @@
         <v>10</v>
       </c>
       <c r="AI128">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ128" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF129">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AH129">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI129">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ129" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="32:36" x14ac:dyDescent="0.2">
@@ -4382,27 +4383,27 @@
         <v>11</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ130" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF131">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AH131">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI131">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ131" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="32:36" x14ac:dyDescent="0.2">
@@ -4416,27 +4417,27 @@
         <v>12</v>
       </c>
       <c r="AI132">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AJ132" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF133">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH133">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="32:36" x14ac:dyDescent="0.2">
@@ -4450,27 +4451,27 @@
         <v>13</v>
       </c>
       <c r="AI134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ134" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF135">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH135">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI135">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AJ135" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="32:36" x14ac:dyDescent="0.2">
@@ -4484,27 +4485,27 @@
         <v>14</v>
       </c>
       <c r="AI136">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ136" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF137">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH137">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ137" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="32:36" x14ac:dyDescent="0.2">
@@ -4521,38 +4522,38 @@
         <v>1</v>
       </c>
       <c r="AJ138" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF139">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH139">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI139">
         <v>1</v>
       </c>
       <c r="AJ139" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF140">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AH140">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ140" t="s">
         <v>30</v>
@@ -4560,33 +4561,33 @@
     </row>
     <row r="141" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF141">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH141">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ141" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF142">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH142">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ142" t="s">
         <v>35</v>
@@ -4594,16 +4595,16 @@
     </row>
     <row r="143" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF143">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH143">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI143">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ143" t="s">
         <v>35</v>
@@ -4620,41 +4621,41 @@
         <v>20</v>
       </c>
       <c r="AI144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ144" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF145">
+        <v>20</v>
+      </c>
+      <c r="AG145" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH145">
+        <v>20</v>
+      </c>
+      <c r="AI145">
+        <v>1</v>
+      </c>
+      <c r="AJ145" t="s">
         <v>21</v>
-      </c>
-      <c r="AG145" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH145">
-        <v>21</v>
-      </c>
-      <c r="AI145">
-        <v>1</v>
-      </c>
-      <c r="AJ145" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="146" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF146">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AH146">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ146" t="s">
         <v>36</v>
@@ -4662,33 +4663,33 @@
     </row>
     <row r="147" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF147">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH147">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF148">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH148">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ148" t="s">
         <v>37</v>
@@ -4696,19 +4697,19 @@
     </row>
     <row r="149" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF149">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH149">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ149" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="32:36" x14ac:dyDescent="0.2">
@@ -4722,27 +4723,27 @@
         <v>25</v>
       </c>
       <c r="AI150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ150" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF151">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH151">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI151">
         <v>2</v>
       </c>
       <c r="AJ151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152" spans="32:36" x14ac:dyDescent="0.2">
@@ -4756,27 +4757,27 @@
         <v>26</v>
       </c>
       <c r="AI152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ152" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF153">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG153" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH153">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ153" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" spans="32:36" x14ac:dyDescent="0.2">
@@ -4790,27 +4791,27 @@
         <v>27</v>
       </c>
       <c r="AI154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ154" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF155">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH155">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI155">
         <v>4</v>
       </c>
       <c r="AJ155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156" spans="32:36" x14ac:dyDescent="0.2">
@@ -4824,41 +4825,41 @@
         <v>28</v>
       </c>
       <c r="AI156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ156" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF157">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG157" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH157">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF158">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG158" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AH158">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ158" t="s">
         <v>42</v>
@@ -4866,16 +4867,16 @@
     </row>
     <row r="159" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF159">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG159" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH159">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ159" t="s">
         <v>42</v>
@@ -4883,16 +4884,16 @@
     </row>
     <row r="160" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF160">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG160" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH160">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ160" t="s">
         <v>42</v>
@@ -4909,27 +4910,27 @@
         <v>32</v>
       </c>
       <c r="AI161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ161" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF162">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG162" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH162">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ162" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="32:36" x14ac:dyDescent="0.2">
@@ -4943,10 +4944,10 @@
         <v>33</v>
       </c>
       <c r="AI163">
+        <v>3</v>
+      </c>
+      <c r="AJ163" t="s">
         <v>5</v>
-      </c>
-      <c r="AJ163" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
@@ -4960,27 +4961,27 @@
         <v>33</v>
       </c>
       <c r="AI164">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ164" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF165">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH165">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI165">
         <v>2</v>
       </c>
       <c r="AJ165" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
@@ -4997,24 +4998,24 @@
         <v>2</v>
       </c>
       <c r="AJ166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF167">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AH167">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ167" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
@@ -5028,10 +5029,10 @@
         <v>35</v>
       </c>
       <c r="AI168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ168" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="32:36" x14ac:dyDescent="0.2">
@@ -5045,10 +5046,10 @@
         <v>35</v>
       </c>
       <c r="AI169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ169" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
@@ -5065,24 +5066,24 @@
         <v>1</v>
       </c>
       <c r="AJ170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF171">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG171" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH171">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI171">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ171" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="32:36" x14ac:dyDescent="0.2">
@@ -5096,27 +5097,27 @@
         <v>36</v>
       </c>
       <c r="AI172">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ172" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF173">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG173" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AH173">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174" spans="32:36" x14ac:dyDescent="0.2">
@@ -5133,7 +5134,7 @@
         <v>2</v>
       </c>
       <c r="AJ174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="32:36" x14ac:dyDescent="0.2">
@@ -5150,7 +5151,7 @@
         <v>2</v>
       </c>
       <c r="AJ175" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="176" spans="32:36" x14ac:dyDescent="0.2">
@@ -5167,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="AJ176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
@@ -5181,10 +5182,10 @@
         <v>37</v>
       </c>
       <c r="AI177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="32:36" x14ac:dyDescent="0.2">
@@ -5198,10 +5199,10 @@
         <v>37</v>
       </c>
       <c r="AI178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ178" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
@@ -5218,7 +5219,7 @@
         <v>2</v>
       </c>
       <c r="AJ179" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
@@ -5235,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="AJ180" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
@@ -5252,7 +5253,7 @@
         <v>2</v>
       </c>
       <c r="AJ181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
@@ -5269,7 +5270,7 @@
         <v>2</v>
       </c>
       <c r="AJ182" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
@@ -5286,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="AJ183" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184" spans="32:36" x14ac:dyDescent="0.2">
@@ -5303,7 +5304,7 @@
         <v>2</v>
       </c>
       <c r="AJ184" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
@@ -5317,10 +5318,10 @@
         <v>37</v>
       </c>
       <c r="AI185">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ185" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
@@ -5334,27 +5335,27 @@
         <v>37</v>
       </c>
       <c r="AI186">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ186" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF187">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG187" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="AH187">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI187">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ187" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="32:36" x14ac:dyDescent="0.2">
@@ -5368,21 +5369,39 @@
         <v>38</v>
       </c>
       <c r="AI188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ188" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="189" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF189">
+        <v>38</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH189">
+        <v>38</v>
+      </c>
+      <c r="AI189">
+        <v>1</v>
+      </c>
+      <c r="AJ189" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT205">
-    <sortCondition ref="A1:A205"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT206">
+    <sortCondition ref="A1:A206"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/MidiThru4/midithru4_bom.xlsx
+++ b/MidiThru4/midithru4_bom.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1DF03-C189-3545-A40E-3AC278A18C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF23171-01F4-8445-BF91-096626423244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="-19660" windowWidth="28040" windowHeight="16260" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru4!$A$1:$E$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru4!$A$1:$E$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="203">
   <si>
     <t>D</t>
   </si>
@@ -629,9 +629,6 @@
     <t xml:space="preserve">* Follow polarity orientation for LEDs. Square pad on PCB is for the negative pin. </t>
   </si>
   <si>
-    <t>* Connect a power source and meassure +5V rail such as on IC socket for 74HC14 between Pin14 and Pin7.</t>
-  </si>
-  <si>
     <t xml:space="preserve">MIDI Thru 1in -&gt; 4out splitter </t>
   </si>
   <si>
@@ -639,6 +636,12 @@
   </si>
   <si>
     <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
+  </si>
+  <si>
+    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.		</t>
   </si>
 </sst>
 </file>
@@ -818,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -826,7 +829,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -844,18 +846,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,14 +885,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>977899</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>32239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330199</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85622</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>301522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1236,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ189"/>
+  <dimension ref="A1:AJ190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:C45"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,13 +1309,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -1459,7 +1465,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -2523,13 +2529,13 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
       <c r="R40" t="s">
         <v>13</v>
       </c>
@@ -2550,41 +2556,19 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="R41" t="s">
-        <v>13</v>
-      </c>
-      <c r="S41" t="s">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>5</v>
-      </c>
-      <c r="V41" t="s">
-        <v>16</v>
-      </c>
-      <c r="W41" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB41">
-        <v>1</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:29" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="E42" s="8"/>
       <c r="R42" t="s">
         <v>13</v>
       </c>
@@ -2601,53 +2585,56 @@
         <v>11</v>
       </c>
       <c r="AA42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC42" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="10"/>
+      <c r="A43" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="21"/>
       <c r="R43" t="s">
         <v>13</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V43" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="W43" t="s">
         <v>11</v>
       </c>
-      <c r="X43" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>100</v>
+      <c r="AA43" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB43">
+        <v>2</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
+      <c r="A44" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="9"/>
       <c r="R44" t="s">
         <v>13</v>
       </c>
@@ -2664,54 +2651,58 @@
         <v>11</v>
       </c>
       <c r="X44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="21"/>
+      <c r="R45" t="s">
+        <v>13</v>
+      </c>
+      <c r="S45" t="s">
+        <v>55</v>
+      </c>
+      <c r="T45">
+        <v>6</v>
+      </c>
+      <c r="V45" t="s">
+        <v>54</v>
+      </c>
+      <c r="W45" t="s">
+        <v>11</v>
+      </c>
+      <c r="X45" t="s">
         <v>81</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Y45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
+    <row r="46" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="R46" t="s">
-        <v>13</v>
-      </c>
-      <c r="S46" t="s">
-        <v>55</v>
-      </c>
-      <c r="T46">
-        <v>6</v>
-      </c>
-      <c r="V46" t="s">
-        <v>54</v>
-      </c>
-      <c r="W46" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA46">
-        <v>1</v>
-      </c>
-      <c r="AB46">
-        <v>1</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="E47" s="9"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="E47" s="8"/>
       <c r="R47" t="s">
         <v>13</v>
       </c>
@@ -2728,18 +2719,18 @@
         <v>11</v>
       </c>
       <c r="AA47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC47" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="E48" s="9"/>
+      <c r="A48" s="7"/>
+      <c r="E48" s="8"/>
       <c r="R48" t="s">
         <v>13</v>
       </c>
@@ -2756,44 +2747,49 @@
         <v>11</v>
       </c>
       <c r="AA48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC48" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
+      <c r="A49" s="10"/>
+      <c r="E49" s="8"/>
       <c r="R49" t="s">
         <v>13</v>
       </c>
       <c r="S49" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="T49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V49" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="W49" t="s">
         <v>11</v>
       </c>
-      <c r="X49" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>0</v>
+      <c r="AA49">
+        <v>3</v>
+      </c>
+      <c r="AB49">
+        <v>3</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
       <c r="R50" t="s">
         <v>13</v>
       </c>
@@ -2810,10 +2806,10 @@
         <v>11</v>
       </c>
       <c r="X50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
@@ -2832,8 +2828,11 @@
       <c r="W51" t="s">
         <v>11</v>
       </c>
-      <c r="Z51" t="s">
-        <v>101</v>
+      <c r="X51" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
@@ -2853,7 +2852,7 @@
         <v>11</v>
       </c>
       <c r="Z52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -2873,7 +2872,7 @@
         <v>11</v>
       </c>
       <c r="Z53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -2892,14 +2891,8 @@
       <c r="W54" t="s">
         <v>11</v>
       </c>
-      <c r="AA54" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB54">
-        <v>1</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>91</v>
+      <c r="Z54" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -2919,10 +2912,10 @@
         <v>11</v>
       </c>
       <c r="AA55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC55" t="s">
         <v>91</v>
@@ -2933,22 +2926,25 @@
         <v>13</v>
       </c>
       <c r="S56" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="T56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V56" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="W56" t="s">
         <v>11</v>
       </c>
-      <c r="X56" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>14</v>
+      <c r="AA56" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB56">
+        <v>2</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -2968,7 +2964,7 @@
         <v>11</v>
       </c>
       <c r="X57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s">
         <v>14</v>
@@ -2990,8 +2986,11 @@
       <c r="W58" t="s">
         <v>11</v>
       </c>
-      <c r="Z58" t="s">
-        <v>104</v>
+      <c r="X58" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
@@ -3010,14 +3009,8 @@
       <c r="W59" t="s">
         <v>11</v>
       </c>
-      <c r="AA59" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB59">
-        <v>1</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>91</v>
+      <c r="Z59" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -3040,7 +3033,7 @@
         <v>11</v>
       </c>
       <c r="AB60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC60" t="s">
         <v>91</v>
@@ -3048,22 +3041,28 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R61" t="s">
+        <v>13</v>
+      </c>
+      <c r="S61" t="s">
+        <v>14</v>
+      </c>
+      <c r="T61">
         <v>8</v>
       </c>
-      <c r="S61" t="s">
-        <v>9</v>
-      </c>
-      <c r="T61">
-        <v>9</v>
-      </c>
-      <c r="U61" t="s">
-        <v>105</v>
-      </c>
       <c r="V61" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W61" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB61">
+        <v>2</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -3076,17 +3075,14 @@
       <c r="T62">
         <v>9</v>
       </c>
+      <c r="U62" t="s">
+        <v>105</v>
+      </c>
       <c r="V62" t="s">
         <v>7</v>
       </c>
       <c r="W62" t="s">
         <v>6</v>
-      </c>
-      <c r="X62" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -3106,10 +3102,10 @@
         <v>6</v>
       </c>
       <c r="X63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -3128,8 +3124,11 @@
       <c r="W64" t="s">
         <v>6</v>
       </c>
-      <c r="Z64" t="s">
-        <v>106</v>
+      <c r="X64" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="18:29" x14ac:dyDescent="0.2">
@@ -3149,7 +3148,7 @@
         <v>6</v>
       </c>
       <c r="Z65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -3168,14 +3167,8 @@
       <c r="W66" t="s">
         <v>6</v>
       </c>
-      <c r="AA66" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB66">
-        <v>1</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>109</v>
+      <c r="Z66" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="18:29" x14ac:dyDescent="0.2">
@@ -3195,13 +3188,13 @@
         <v>6</v>
       </c>
       <c r="AA67" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="AB67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC67" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="18:29" x14ac:dyDescent="0.2">
@@ -3221,10 +3214,10 @@
         <v>6</v>
       </c>
       <c r="AA68" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC68" t="s">
         <v>91</v>
@@ -3247,13 +3240,13 @@
         <v>6</v>
       </c>
       <c r="AA69" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="AB69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC69" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="18:29" x14ac:dyDescent="0.2">
@@ -3273,13 +3266,13 @@
         <v>6</v>
       </c>
       <c r="AA70" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AB70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC70" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -3299,10 +3292,10 @@
         <v>6</v>
       </c>
       <c r="AA71" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AB71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC71" t="s">
         <v>91</v>
@@ -3325,10 +3318,10 @@
         <v>6</v>
       </c>
       <c r="AA72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC72" t="s">
         <v>91</v>
@@ -3351,10 +3344,10 @@
         <v>6</v>
       </c>
       <c r="AA73" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AB73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC73" t="s">
         <v>91</v>
@@ -3362,25 +3355,28 @@
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R74" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="S74" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="T74">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V74" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="W74" t="s">
-        <v>57</v>
-      </c>
-      <c r="X74" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB74">
+        <v>8</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
@@ -3400,10 +3396,10 @@
         <v>57</v>
       </c>
       <c r="X75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -3423,10 +3419,10 @@
         <v>57</v>
       </c>
       <c r="X76" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="Y76" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -3446,10 +3442,10 @@
         <v>57</v>
       </c>
       <c r="X77" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y77" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -3469,10 +3465,10 @@
         <v>57</v>
       </c>
       <c r="X78" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="Y78" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -3492,10 +3488,10 @@
         <v>57</v>
       </c>
       <c r="X79" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y79" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="18:29" x14ac:dyDescent="0.2">
@@ -3515,10 +3511,10 @@
         <v>57</v>
       </c>
       <c r="X80" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="Y80" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="18:36" x14ac:dyDescent="0.2">
@@ -3538,10 +3534,10 @@
         <v>57</v>
       </c>
       <c r="X81" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="Y81" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="18:36" x14ac:dyDescent="0.2">
@@ -3561,10 +3557,10 @@
         <v>57</v>
       </c>
       <c r="X82" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Y82" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="18:36" x14ac:dyDescent="0.2">
@@ -3584,10 +3580,10 @@
         <v>57</v>
       </c>
       <c r="X83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y83" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="18:36" x14ac:dyDescent="0.2">
@@ -3607,10 +3603,10 @@
         <v>57</v>
       </c>
       <c r="X84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Y84" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="18:36" x14ac:dyDescent="0.2">
@@ -3630,10 +3626,10 @@
         <v>57</v>
       </c>
       <c r="X85" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y85" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="18:36" x14ac:dyDescent="0.2">
@@ -3653,10 +3649,10 @@
         <v>57</v>
       </c>
       <c r="X86" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="18:36" x14ac:dyDescent="0.2">
@@ -3675,14 +3671,11 @@
       <c r="W87" t="s">
         <v>57</v>
       </c>
-      <c r="AA87" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB87">
-        <v>1</v>
-      </c>
-      <c r="AC87" t="s">
-        <v>86</v>
+      <c r="X87" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="18:36" x14ac:dyDescent="0.2">
@@ -3702,10 +3695,10 @@
         <v>57</v>
       </c>
       <c r="AA88" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="AB88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC88" t="s">
         <v>86</v>
@@ -3728,70 +3721,79 @@
         <v>57</v>
       </c>
       <c r="AA89" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB89">
+        <v>2</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="18:36" x14ac:dyDescent="0.2">
+      <c r="R90" t="s">
+        <v>61</v>
+      </c>
+      <c r="S90" t="s">
+        <v>62</v>
+      </c>
+      <c r="T90">
+        <v>10</v>
+      </c>
+      <c r="V90" t="s">
+        <v>60</v>
+      </c>
+      <c r="W90" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA90" t="s">
         <v>116</v>
       </c>
-      <c r="AB89">
+      <c r="AB90">
         <v>3</v>
       </c>
-      <c r="AC89" t="s">
+      <c r="AC90" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD90" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="91" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD91" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="AE91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD92" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="AE92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD93" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="18:36" x14ac:dyDescent="0.2">
       <c r="AD94" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="18:36" x14ac:dyDescent="0.2">
+      <c r="AD95" t="s">
         <v>61</v>
       </c>
-      <c r="AE94" t="s">
+      <c r="AE95" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AF95">
-        <v>1</v>
-      </c>
-      <c r="AG95" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH95">
-        <v>1</v>
-      </c>
-      <c r="AI95">
-        <v>1</v>
-      </c>
-      <c r="AJ95" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="96" spans="18:36" x14ac:dyDescent="0.2">
@@ -3808,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="AJ96" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="32:36" x14ac:dyDescent="0.2">
@@ -3825,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="AJ97" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="32:36" x14ac:dyDescent="0.2">
@@ -3839,10 +3841,10 @@
         <v>1</v>
       </c>
       <c r="AI98">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ98" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="32:36" x14ac:dyDescent="0.2">
@@ -3856,10 +3858,10 @@
         <v>1</v>
       </c>
       <c r="AI99">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ99" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="32:36" x14ac:dyDescent="0.2">
@@ -3873,10 +3875,10 @@
         <v>1</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ100" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="32:36" x14ac:dyDescent="0.2">
@@ -3893,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="AJ101" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="32:36" x14ac:dyDescent="0.2">
@@ -3910,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="AJ102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="32:36" x14ac:dyDescent="0.2">
@@ -3927,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="AJ103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="32:36" x14ac:dyDescent="0.2">
@@ -3944,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="AJ104" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="32:36" x14ac:dyDescent="0.2">
@@ -3958,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="AI105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ105" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="32:36" x14ac:dyDescent="0.2">
@@ -3975,10 +3977,10 @@
         <v>1</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ106" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="32:36" x14ac:dyDescent="0.2">
@@ -3992,27 +3994,27 @@
         <v>1</v>
       </c>
       <c r="AI107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ107" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI108">
         <v>2</v>
       </c>
       <c r="AJ108" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="32:36" x14ac:dyDescent="0.2">
@@ -4026,7 +4028,7 @@
         <v>2</v>
       </c>
       <c r="AI109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ109" t="s">
         <v>1</v>
@@ -4043,7 +4045,7 @@
         <v>2</v>
       </c>
       <c r="AI110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ110" t="s">
         <v>1</v>
@@ -4060,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="AI111">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ111" t="s">
         <v>1</v>
@@ -4077,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="AI112">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ112" t="s">
         <v>1</v>
@@ -4094,7 +4096,7 @@
         <v>2</v>
       </c>
       <c r="AI113">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ113" t="s">
         <v>1</v>
@@ -4102,33 +4104,33 @@
     </row>
     <row r="114" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ114" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ115" t="s">
         <v>5</v>
@@ -4145,10 +4147,10 @@
         <v>4</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ116" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="32:36" x14ac:dyDescent="0.2">
@@ -4165,38 +4167,38 @@
         <v>1</v>
       </c>
       <c r="AJ117" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ118" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ119" t="s">
         <v>5</v>
@@ -4213,10 +4215,10 @@
         <v>6</v>
       </c>
       <c r="AI120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ120" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="32:36" x14ac:dyDescent="0.2">
@@ -4230,27 +4232,27 @@
         <v>6</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ121" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ122" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="32:36" x14ac:dyDescent="0.2">
@@ -4264,27 +4266,27 @@
         <v>7</v>
       </c>
       <c r="AI123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ123" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ124" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="32:36" x14ac:dyDescent="0.2">
@@ -4298,27 +4300,27 @@
         <v>8</v>
       </c>
       <c r="AI125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ125" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF126">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH126">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI126">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ126" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="32:36" x14ac:dyDescent="0.2">
@@ -4332,27 +4334,27 @@
         <v>9</v>
       </c>
       <c r="AI127">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ127" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF128">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH128">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI128">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ128" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="32:36" x14ac:dyDescent="0.2">
@@ -4366,27 +4368,27 @@
         <v>10</v>
       </c>
       <c r="AI129">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ129" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF130">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AH130">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI130">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ130" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="32:36" x14ac:dyDescent="0.2">
@@ -4400,27 +4402,27 @@
         <v>11</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ131" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF132">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AH132">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI132">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ132" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="32:36" x14ac:dyDescent="0.2">
@@ -4434,27 +4436,27 @@
         <v>12</v>
       </c>
       <c r="AI133">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AJ133" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF134">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH134">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="32:36" x14ac:dyDescent="0.2">
@@ -4468,27 +4470,27 @@
         <v>13</v>
       </c>
       <c r="AI135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ135" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF136">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH136">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI136">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AJ136" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="32:36" x14ac:dyDescent="0.2">
@@ -4502,27 +4504,27 @@
         <v>14</v>
       </c>
       <c r="AI137">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ137" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF138">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH138">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ138" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="32:36" x14ac:dyDescent="0.2">
@@ -4539,38 +4541,38 @@
         <v>1</v>
       </c>
       <c r="AJ139" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF140">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH140">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI140">
         <v>1</v>
       </c>
       <c r="AJ140" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF141">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AH141">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ141" t="s">
         <v>30</v>
@@ -4578,33 +4580,33 @@
     </row>
     <row r="142" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF142">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH142">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ142" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF143">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH143">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ143" t="s">
         <v>35</v>
@@ -4612,16 +4614,16 @@
     </row>
     <row r="144" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF144">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH144">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI144">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ144" t="s">
         <v>35</v>
@@ -4638,41 +4640,41 @@
         <v>20</v>
       </c>
       <c r="AI145">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ145" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF146">
+        <v>20</v>
+      </c>
+      <c r="AG146" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH146">
+        <v>20</v>
+      </c>
+      <c r="AI146">
+        <v>1</v>
+      </c>
+      <c r="AJ146" t="s">
         <v>21</v>
-      </c>
-      <c r="AG146" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH146">
-        <v>21</v>
-      </c>
-      <c r="AI146">
-        <v>1</v>
-      </c>
-      <c r="AJ146" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="147" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF147">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG147" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AH147">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ147" t="s">
         <v>36</v>
@@ -4680,33 +4682,33 @@
     </row>
     <row r="148" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF148">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG148" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH148">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF149">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH149">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ149" t="s">
         <v>37</v>
@@ -4714,19 +4716,19 @@
     </row>
     <row r="150" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF150">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH150">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ150" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" spans="32:36" x14ac:dyDescent="0.2">
@@ -4740,27 +4742,27 @@
         <v>25</v>
       </c>
       <c r="AI151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ151" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF152">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH152">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI152">
         <v>2</v>
       </c>
       <c r="AJ152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153" spans="32:36" x14ac:dyDescent="0.2">
@@ -4774,27 +4776,27 @@
         <v>26</v>
       </c>
       <c r="AI153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ153" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF154">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH154">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ154" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155" spans="32:36" x14ac:dyDescent="0.2">
@@ -4808,27 +4810,27 @@
         <v>27</v>
       </c>
       <c r="AI155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ155" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF156">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH156">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI156">
         <v>4</v>
       </c>
       <c r="AJ156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="32:36" x14ac:dyDescent="0.2">
@@ -4842,41 +4844,41 @@
         <v>28</v>
       </c>
       <c r="AI157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ157" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF158">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG158" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH158">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF159">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG159" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AH159">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ159" t="s">
         <v>42</v>
@@ -4884,16 +4886,16 @@
     </row>
     <row r="160" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF160">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG160" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH160">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ160" t="s">
         <v>42</v>
@@ -4901,16 +4903,16 @@
     </row>
     <row r="161" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF161">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG161" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH161">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ161" t="s">
         <v>42</v>
@@ -4927,27 +4929,27 @@
         <v>32</v>
       </c>
       <c r="AI162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ162" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF163">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH163">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ163" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
@@ -4961,10 +4963,10 @@
         <v>33</v>
       </c>
       <c r="AI164">
+        <v>3</v>
+      </c>
+      <c r="AJ164" t="s">
         <v>5</v>
-      </c>
-      <c r="AJ164" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
@@ -4978,27 +4980,27 @@
         <v>33</v>
       </c>
       <c r="AI165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ165" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF166">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG166" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH166">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI166">
         <v>2</v>
       </c>
       <c r="AJ166" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
@@ -5015,24 +5017,24 @@
         <v>2</v>
       </c>
       <c r="AJ167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF168">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AH168">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ168" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="169" spans="32:36" x14ac:dyDescent="0.2">
@@ -5046,10 +5048,10 @@
         <v>35</v>
       </c>
       <c r="AI169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ169" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
@@ -5063,10 +5065,10 @@
         <v>35</v>
       </c>
       <c r="AI170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ170" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="32:36" x14ac:dyDescent="0.2">
@@ -5083,24 +5085,24 @@
         <v>1</v>
       </c>
       <c r="AJ171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF172">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG172" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH172">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI172">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ172" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="173" spans="32:36" x14ac:dyDescent="0.2">
@@ -5114,27 +5116,27 @@
         <v>36</v>
       </c>
       <c r="AI173">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ173" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF174">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG174" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AH174">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="175" spans="32:36" x14ac:dyDescent="0.2">
@@ -5151,7 +5153,7 @@
         <v>2</v>
       </c>
       <c r="AJ175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="32:36" x14ac:dyDescent="0.2">
@@ -5168,7 +5170,7 @@
         <v>2</v>
       </c>
       <c r="AJ176" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
@@ -5185,7 +5187,7 @@
         <v>2</v>
       </c>
       <c r="AJ177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178" spans="32:36" x14ac:dyDescent="0.2">
@@ -5199,10 +5201,10 @@
         <v>37</v>
       </c>
       <c r="AI178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ178" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
@@ -5216,10 +5218,10 @@
         <v>37</v>
       </c>
       <c r="AI179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ179" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
@@ -5236,7 +5238,7 @@
         <v>2</v>
       </c>
       <c r="AJ180" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
@@ -5253,7 +5255,7 @@
         <v>2</v>
       </c>
       <c r="AJ181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
@@ -5270,7 +5272,7 @@
         <v>2</v>
       </c>
       <c r="AJ182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
@@ -5287,7 +5289,7 @@
         <v>2</v>
       </c>
       <c r="AJ183" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" spans="32:36" x14ac:dyDescent="0.2">
@@ -5304,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="AJ184" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
@@ -5321,7 +5323,7 @@
         <v>2</v>
       </c>
       <c r="AJ185" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
@@ -5335,10 +5337,10 @@
         <v>37</v>
       </c>
       <c r="AI186">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ186" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="32:36" x14ac:dyDescent="0.2">
@@ -5352,27 +5354,27 @@
         <v>37</v>
       </c>
       <c r="AI187">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ187" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF188">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG188" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="AH188">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI188">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ188" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="32:36" x14ac:dyDescent="0.2">
@@ -5386,25 +5388,44 @@
         <v>38</v>
       </c>
       <c r="AI189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ189" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF190">
+        <v>38</v>
+      </c>
+      <c r="AG190" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH190">
+        <v>38</v>
+      </c>
+      <c r="AI190">
+        <v>1</v>
+      </c>
+      <c r="AJ190" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT206">
-    <sortCondition ref="A1:A206"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT207">
+    <sortCondition ref="A1:A207"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A47:C47"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A42:C42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MidiThru4/midithru4_bom.xlsx
+++ b/MidiThru4/midithru4_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF23171-01F4-8445-BF91-096626423244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFEABC9-7CDF-AC44-9D38-1022FAFD0EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru4" sheetId="1" r:id="rId1"/>
@@ -635,13 +635,13 @@
     <t>MidiThru/4</t>
   </si>
   <si>
-    <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
-  </si>
-  <si>
-    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.		</t>
+  </si>
+  <si>
+    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5. Power on board without ICs first to avoid the damage due soldering mistakes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave the center pin unconnected. Don't short it, etc...  </t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -831,7 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -846,22 +845,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,7 +1246,7 @@
   <dimension ref="A1:AJ190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="A47" sqref="A47:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1309,13 +1310,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -2529,7 +2530,7 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="18" t="s">
         <v>194</v>
       </c>
       <c r="B40" s="5"/>
@@ -2556,19 +2557,19 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:29" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="E42" s="8"/>
+      <c r="A42" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="E42" s="7"/>
       <c r="R42" t="s">
         <v>13</v>
       </c>
@@ -2595,13 +2596,13 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
       <c r="R43" t="s">
         <v>13</v>
       </c>
@@ -2628,13 +2629,13 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="9"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="8"/>
       <c r="R44" t="s">
         <v>13</v>
       </c>
@@ -2658,13 +2659,13 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
       <c r="R45" t="s">
         <v>13</v>
       </c>
@@ -2688,21 +2689,21 @@
       </c>
     </row>
     <row r="46" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+      <c r="A46" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="E47" s="8"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="E47" s="7"/>
       <c r="R47" t="s">
         <v>13</v>
       </c>
@@ -2729,8 +2730,10 @@
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="E48" s="7"/>
       <c r="R48" t="s">
         <v>13</v>
       </c>
@@ -2757,8 +2760,8 @@
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="E49" s="8"/>
+      <c r="A49" s="9"/>
+      <c r="E49" s="7"/>
       <c r="R49" t="s">
         <v>13</v>
       </c>
@@ -2785,11 +2788,11 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
       <c r="R50" t="s">
         <v>13</v>
       </c>
@@ -5416,7 +5419,7 @@
     <sortCondition ref="A1:A207"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A47:C48"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A44:D44"/>

--- a/MidiThru4/midithru4_bom.xlsx
+++ b/MidiThru4/midithru4_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFEABC9-7CDF-AC44-9D38-1022FAFD0EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC1D524-8613-CC41-821B-276D2D091E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
+    <workbookView xWindow="-29060" yWindow="-600" windowWidth="28800" windowHeight="16400" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru4" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,7 @@
     <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5. Power on board without ICs first to avoid the damage due soldering mistakes.</t>
   </si>
   <si>
-    <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave the center pin unconnected. Don't short it, etc...  </t>
+    <t>* If you power from USB source or straight +5V power supply, then you need to set the jumper JP1 onto 2-3 position. If any other PSU &gt; 5V, then set it to 1-2. Please, note Pin1 has the angle marking.</t>
   </si>
 </sst>
 </file>
@@ -849,20 +849,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,15 +885,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>977899</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>1142999</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>32239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>330199</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>301522</xdr:rowOff>
+      <xdr:rowOff>150526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -909,7 +909,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -923,8 +923,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7556499" y="8592039"/>
-          <a:ext cx="1104900" cy="1513883"/>
+          <a:off x="7721599" y="8388839"/>
+          <a:ext cx="1143001" cy="1566087"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -939,6 +939,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>825501</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>188744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DE9A17-0DB8-2E40-BD2B-E6B512CA7CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7404101" y="9956800"/>
+          <a:ext cx="1727199" cy="1090444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1246,7 +1290,7 @@
   <dimension ref="A1:AJ190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:C48"/>
+      <selection activeCell="A46" sqref="A46:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1310,13 +1354,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -2564,11 +2608,11 @@
       <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:29" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
       <c r="E42" s="7"/>
       <c r="R42" t="s">
         <v>13</v>
@@ -2596,13 +2640,13 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="26"/>
       <c r="R43" t="s">
         <v>13</v>
       </c>
@@ -2629,12 +2673,12 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="8"/>
       <c r="R44" t="s">
         <v>13</v>
@@ -2659,13 +2703,13 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="26"/>
       <c r="R45" t="s">
         <v>13</v>
       </c>
@@ -2689,20 +2733,20 @@
       </c>
     </row>
     <row r="46" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="13"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
       <c r="E47" s="7"/>
       <c r="R47" t="s">
         <v>13</v>
@@ -2730,9 +2774,9 @@
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
       <c r="E48" s="7"/>
       <c r="R48" t="s">
         <v>13</v>

--- a/MidiThru4/midithru4_bom.xlsx
+++ b/MidiThru4/midithru4_bom.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiThru4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/GitHub/Midi-boards/MidiThru4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC1D524-8613-CC41-821B-276D2D091E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C2C5EF-736B-7F42-9AC9-93F86662B38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29060" yWindow="-600" windowWidth="28800" windowHeight="16400" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="33600" windowHeight="19260" xr2:uid="{1DC00C95-4B08-F94A-83B0-76F56463D0E9}"/>
   </bookViews>
   <sheets>
     <sheet name="midithru4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru4!$A$1:$E$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midithru4!$A$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="204">
   <si>
     <t>D</t>
   </si>
@@ -642,13 +642,16 @@
   </si>
   <si>
     <t>* If you power from USB source or straight +5V power supply, then you need to set the jumper JP1 onto 2-3 position. If any other PSU &gt; 5V, then set it to 1-2. Please, note Pin1 has the angle marking.</t>
+  </si>
+  <si>
+    <t>https://github.com/Deftaudio/Midi-boards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -687,6 +690,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -708,7 +735,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -817,9 +844,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -842,12 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -863,8 +895,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -886,13 +926,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1142999</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>32239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>150526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -947,13 +987,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>825501</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>188744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1287,10 +1327,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ190"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AJ191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1354,13 +1397,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -1380,48 +1423,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="R3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
-        <v>77</v>
-      </c>
-      <c r="W3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>169</v>
-      </c>
+    <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R4" t="s">
         <v>3</v>
       </c>
@@ -1441,13 +1452,28 @@
         <v>11</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="R5" t="s">
         <v>3</v>
       </c>
@@ -1467,20 +1493,13 @@
         <v>11</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
       <c r="R6" t="s">
         <v>3</v>
       </c>
@@ -1500,22 +1519,20 @@
         <v>11</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
+      <c r="A7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="R7" t="s">
         <v>3</v>
       </c>
@@ -1535,13 +1552,22 @@
         <v>11</v>
       </c>
       <c r="AB7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
       <c r="R8" t="s">
         <v>3</v>
       </c>
@@ -1561,20 +1587,13 @@
         <v>11</v>
       </c>
       <c r="AB8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
       <c r="R9" t="s">
         <v>3</v>
       </c>
@@ -1591,29 +1610,23 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="AB9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="R10" t="s">
         <v>3</v>
       </c>
@@ -1630,25 +1643,25 @@
         <v>78</v>
       </c>
       <c r="AA10" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="AB10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
+      <c r="B11" t="s">
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1672,13 +1685,26 @@
         <v>11</v>
       </c>
       <c r="AB11">
+        <v>8</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AC11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
       <c r="R12" t="s">
         <v>3</v>
       </c>
@@ -1698,20 +1724,13 @@
         <v>11</v>
       </c>
       <c r="AB12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
       <c r="R13" t="s">
         <v>3</v>
       </c>
@@ -1731,26 +1750,20 @@
         <v>11</v>
       </c>
       <c r="AB13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="4">
-        <v>104</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
+      <c r="A14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="R14" t="s">
         <v>3</v>
       </c>
@@ -1770,25 +1783,25 @@
         <v>11</v>
       </c>
       <c r="AB14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="D15" s="4">
+        <v>104</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" t="s">
         <v>3</v>
@@ -1809,22 +1822,22 @@
         <v>11</v>
       </c>
       <c r="AB15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1845,43 +1858,55 @@
         <v>78</v>
       </c>
       <c r="AA16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB16">
+        <v>13</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s">
         <v>87</v>
       </c>
-      <c r="AB16">
+      <c r="AB17">
         <v>14</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="R17" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" t="s">
-        <v>48</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17" t="s">
-        <v>88</v>
-      </c>
-      <c r="V17" t="s">
-        <v>47</v>
-      </c>
-      <c r="W17" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
       <c r="R18" t="s">
         <v>33</v>
       </c>
@@ -1891,33 +1916,24 @@
       <c r="T18">
         <v>2</v>
       </c>
+      <c r="U18" t="s">
+        <v>88</v>
+      </c>
       <c r="V18" t="s">
         <v>47</v>
       </c>
       <c r="W18" t="s">
         <v>11</v>
       </c>
-      <c r="X18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="3">
-        <v>11</v>
-      </c>
+      <c r="A19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="R19" t="s">
         <v>33</v>
       </c>
@@ -1934,25 +1950,25 @@
         <v>11</v>
       </c>
       <c r="X19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R20" t="s">
         <v>33</v>
@@ -1969,20 +1985,23 @@
       <c r="W20" t="s">
         <v>11</v>
       </c>
-      <c r="Z20" t="s">
-        <v>90</v>
+      <c r="X20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -2002,17 +2021,24 @@
       <c r="W21" t="s">
         <v>11</v>
       </c>
-      <c r="AA21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>91</v>
+      <c r="Z21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
       <c r="R22" t="s">
         <v>33</v>
       </c>
@@ -2032,56 +2058,46 @@
         <v>11</v>
       </c>
       <c r="AB22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
       <c r="R23" t="s">
         <v>33</v>
       </c>
       <c r="S23" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V23" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="W23" t="s">
-        <v>31</v>
-      </c>
-      <c r="X23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>89</v>
+        <v>11</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
+      <c r="A24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="R24" t="s">
         <v>33</v>
       </c>
@@ -2098,25 +2114,25 @@
         <v>31</v>
       </c>
       <c r="X24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25" t="s">
         <v>33</v>
@@ -2133,11 +2149,27 @@
       <c r="W25" t="s">
         <v>31</v>
       </c>
-      <c r="Z25" t="s">
-        <v>92</v>
+      <c r="X25" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
       <c r="R26" t="s">
         <v>33</v>
       </c>
@@ -2153,24 +2185,11 @@
       <c r="W26" t="s">
         <v>31</v>
       </c>
-      <c r="AA26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>91</v>
+      <c r="Z26" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
       <c r="R27" t="s">
         <v>33</v>
       </c>
@@ -2190,26 +2209,20 @@
         <v>11</v>
       </c>
       <c r="AB27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5</v>
-      </c>
+      <c r="A28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="R28" t="s">
         <v>33</v>
       </c>
@@ -2229,7 +2242,7 @@
         <v>11</v>
       </c>
       <c r="AB28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC28" t="s">
         <v>91</v>
@@ -2238,16 +2251,16 @@
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R29" t="s">
         <v>33</v>
@@ -2268,7 +2281,7 @@
         <v>11</v>
       </c>
       <c r="AB29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC29" t="s">
         <v>91</v>
@@ -2277,40 +2290,56 @@
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="V30" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB30">
         <v>5</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="AC30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="R30" t="s">
-        <v>13</v>
-      </c>
-      <c r="S30" t="s">
-        <v>29</v>
-      </c>
-      <c r="T30">
-        <v>4</v>
-      </c>
-      <c r="V30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W30" t="s">
-        <v>11</v>
-      </c>
-      <c r="X30" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
       <c r="R31" t="s">
         <v>13</v>
       </c>
@@ -2327,20 +2356,13 @@
         <v>11</v>
       </c>
       <c r="X31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
       <c r="R32" t="s">
         <v>13</v>
       </c>
@@ -2356,24 +2378,21 @@
       <c r="W32" t="s">
         <v>11</v>
       </c>
-      <c r="Z32" t="s">
-        <v>93</v>
+      <c r="X32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
+      <c r="A33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="R33" t="s">
         <v>13</v>
       </c>
@@ -2389,23 +2408,21 @@
       <c r="W33" t="s">
         <v>11</v>
       </c>
-      <c r="AA33" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB33">
-        <v>1</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>91</v>
+      <c r="Z33" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C34" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
@@ -2428,43 +2445,48 @@
         <v>11</v>
       </c>
       <c r="AB34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC34" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
       <c r="R35" t="s">
         <v>13</v>
       </c>
       <c r="S35" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="T35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="W35" t="s">
         <v>11</v>
       </c>
-      <c r="X35" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>0</v>
+      <c r="AA35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB35">
+        <v>2</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
       <c r="R36" t="s">
         <v>13</v>
       </c>
@@ -2481,26 +2503,20 @@
         <v>11</v>
       </c>
       <c r="X36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
+      <c r="A37" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
       <c r="R37" t="s">
         <v>13</v>
       </c>
@@ -2516,20 +2532,23 @@
       <c r="W37" t="s">
         <v>11</v>
       </c>
-      <c r="Z37" t="s">
-        <v>94</v>
+      <c r="X37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -2550,10 +2569,23 @@
         <v>11</v>
       </c>
       <c r="Z38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
       <c r="R39" t="s">
         <v>13</v>
       </c>
@@ -2570,17 +2602,10 @@
         <v>11</v>
       </c>
       <c r="Z39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
       <c r="R40" t="s">
         <v>13</v>
       </c>
@@ -2597,56 +2622,47 @@
         <v>11</v>
       </c>
       <c r="Z40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="R41" t="s">
+        <v>13</v>
+      </c>
+      <c r="S41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="V41" t="s">
+        <v>16</v>
+      </c>
+      <c r="W41" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="1:29" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:29" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="E42" s="7"/>
-      <c r="R42" t="s">
-        <v>13</v>
-      </c>
-      <c r="S42" t="s">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>5</v>
-      </c>
-      <c r="V42" t="s">
-        <v>16</v>
-      </c>
-      <c r="W42" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB42">
-        <v>1</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="26"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="E43" s="7"/>
       <c r="R43" t="s">
         <v>13</v>
       </c>
@@ -2663,53 +2679,56 @@
         <v>11</v>
       </c>
       <c r="AA43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="8"/>
+      <c r="A44" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="23"/>
       <c r="R44" t="s">
         <v>13</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V44" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="W44" t="s">
         <v>11</v>
       </c>
-      <c r="X44" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>100</v>
+      <c r="AA44" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB44">
+        <v>2</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="26"/>
+      <c r="A45" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="8"/>
       <c r="R45" t="s">
         <v>13</v>
       </c>
@@ -2726,57 +2745,57 @@
         <v>11</v>
       </c>
       <c r="X45" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="23"/>
+      <c r="R46" t="s">
+        <v>13</v>
+      </c>
+      <c r="S46" t="s">
+        <v>55</v>
+      </c>
+      <c r="T46">
+        <v>6</v>
+      </c>
+      <c r="V46" t="s">
+        <v>54</v>
+      </c>
+      <c r="W46" t="s">
+        <v>11</v>
+      </c>
+      <c r="X46" t="s">
         <v>81</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Y46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+    <row r="47" spans="1:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="E47" s="7"/>
-      <c r="R47" t="s">
-        <v>13</v>
-      </c>
-      <c r="S47" t="s">
-        <v>55</v>
-      </c>
-      <c r="T47">
-        <v>6</v>
-      </c>
-      <c r="V47" t="s">
-        <v>54</v>
-      </c>
-      <c r="W47" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA47">
-        <v>1</v>
-      </c>
-      <c r="AB47">
-        <v>1</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="E48" s="7"/>
       <c r="R48" t="s">
         <v>13</v>
@@ -2794,17 +2813,19 @@
         <v>11</v>
       </c>
       <c r="AA48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC48" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
       <c r="E49" s="7"/>
       <c r="R49" t="s">
         <v>13</v>
@@ -2822,44 +2843,49 @@
         <v>11</v>
       </c>
       <c r="AA49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC49" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
+      <c r="A50" s="9"/>
+      <c r="E50" s="7"/>
       <c r="R50" t="s">
         <v>13</v>
       </c>
       <c r="S50" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="T50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V50" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="W50" t="s">
         <v>11</v>
       </c>
-      <c r="X50" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>0</v>
+      <c r="AA50">
+        <v>3</v>
+      </c>
+      <c r="AB50">
+        <v>3</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
       <c r="R51" t="s">
         <v>13</v>
       </c>
@@ -2876,10 +2902,10 @@
         <v>11</v>
       </c>
       <c r="X51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
@@ -2898,8 +2924,11 @@
       <c r="W52" t="s">
         <v>11</v>
       </c>
-      <c r="Z52" t="s">
-        <v>101</v>
+      <c r="X52" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -2919,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="Z53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -2939,7 +2968,7 @@
         <v>11</v>
       </c>
       <c r="Z54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -2958,14 +2987,8 @@
       <c r="W55" t="s">
         <v>11</v>
       </c>
-      <c r="AA55" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB55">
-        <v>1</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>91</v>
+      <c r="Z55" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -2985,10 +3008,10 @@
         <v>11</v>
       </c>
       <c r="AA56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC56" t="s">
         <v>91</v>
@@ -2999,22 +3022,25 @@
         <v>13</v>
       </c>
       <c r="S57" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="T57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V57" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="W57" t="s">
         <v>11</v>
       </c>
-      <c r="X57" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>14</v>
+      <c r="AA57" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB57">
+        <v>2</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -3034,7 +3060,7 @@
         <v>11</v>
       </c>
       <c r="X58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s">
         <v>14</v>
@@ -3056,8 +3082,11 @@
       <c r="W59" t="s">
         <v>11</v>
       </c>
-      <c r="Z59" t="s">
-        <v>104</v>
+      <c r="X59" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -3076,14 +3105,8 @@
       <c r="W60" t="s">
         <v>11</v>
       </c>
-      <c r="AA60" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB60">
-        <v>1</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>91</v>
+      <c r="Z60" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
@@ -3106,7 +3129,7 @@
         <v>11</v>
       </c>
       <c r="AB61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC61" t="s">
         <v>91</v>
@@ -3114,22 +3137,28 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R62" t="s">
+        <v>13</v>
+      </c>
+      <c r="S62" t="s">
+        <v>14</v>
+      </c>
+      <c r="T62">
         <v>8</v>
       </c>
-      <c r="S62" t="s">
-        <v>9</v>
-      </c>
-      <c r="T62">
-        <v>9</v>
-      </c>
-      <c r="U62" t="s">
-        <v>105</v>
-      </c>
       <c r="V62" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W62" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB62">
+        <v>2</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -3142,17 +3171,14 @@
       <c r="T63">
         <v>9</v>
       </c>
+      <c r="U63" t="s">
+        <v>105</v>
+      </c>
       <c r="V63" t="s">
         <v>7</v>
       </c>
       <c r="W63" t="s">
         <v>6</v>
-      </c>
-      <c r="X63" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -3172,10 +3198,10 @@
         <v>6</v>
       </c>
       <c r="X64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="18:29" x14ac:dyDescent="0.2">
@@ -3194,8 +3220,11 @@
       <c r="W65" t="s">
         <v>6</v>
       </c>
-      <c r="Z65" t="s">
-        <v>106</v>
+      <c r="X65" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -3215,7 +3244,7 @@
         <v>6</v>
       </c>
       <c r="Z66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="18:29" x14ac:dyDescent="0.2">
@@ -3234,14 +3263,8 @@
       <c r="W67" t="s">
         <v>6</v>
       </c>
-      <c r="AA67" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB67">
-        <v>1</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>109</v>
+      <c r="Z67" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="18:29" x14ac:dyDescent="0.2">
@@ -3261,13 +3284,13 @@
         <v>6</v>
       </c>
       <c r="AA68" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="AB68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC68" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="18:29" x14ac:dyDescent="0.2">
@@ -3287,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="AA69" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC69" t="s">
         <v>91</v>
@@ -3313,13 +3336,13 @@
         <v>6</v>
       </c>
       <c r="AA70" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="AB70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC70" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -3339,13 +3362,13 @@
         <v>6</v>
       </c>
       <c r="AA71" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AB71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC71" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="18:29" x14ac:dyDescent="0.2">
@@ -3365,10 +3388,10 @@
         <v>6</v>
       </c>
       <c r="AA72" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AB72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC72" t="s">
         <v>91</v>
@@ -3391,10 +3414,10 @@
         <v>6</v>
       </c>
       <c r="AA73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC73" t="s">
         <v>91</v>
@@ -3417,10 +3440,10 @@
         <v>6</v>
       </c>
       <c r="AA74" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AB74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC74" t="s">
         <v>91</v>
@@ -3428,25 +3451,28 @@
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R75" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="S75" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="T75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V75" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="W75" t="s">
-        <v>57</v>
-      </c>
-      <c r="X75" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB75">
+        <v>8</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -3466,10 +3492,10 @@
         <v>57</v>
       </c>
       <c r="X76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -3489,10 +3515,10 @@
         <v>57</v>
       </c>
       <c r="X77" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="Y77" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -3512,10 +3538,10 @@
         <v>57</v>
       </c>
       <c r="X78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y78" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -3535,10 +3561,10 @@
         <v>57</v>
       </c>
       <c r="X79" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="Y79" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="18:29" x14ac:dyDescent="0.2">
@@ -3558,13 +3584,13 @@
         <v>57</v>
       </c>
       <c r="X80" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y80" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="18:36" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R81" t="s">
         <v>61</v>
       </c>
@@ -3581,13 +3607,13 @@
         <v>57</v>
       </c>
       <c r="X81" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="Y81" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="18:36" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R82" t="s">
         <v>61</v>
       </c>
@@ -3604,13 +3630,13 @@
         <v>57</v>
       </c>
       <c r="X82" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="Y82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="18:36" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R83" t="s">
         <v>61</v>
       </c>
@@ -3627,13 +3653,13 @@
         <v>57</v>
       </c>
       <c r="X83" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Y83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="18:36" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R84" t="s">
         <v>61</v>
       </c>
@@ -3650,13 +3676,13 @@
         <v>57</v>
       </c>
       <c r="X84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="18:36" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R85" t="s">
         <v>61</v>
       </c>
@@ -3673,13 +3699,13 @@
         <v>57</v>
       </c>
       <c r="X85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Y85" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="18:36" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R86" t="s">
         <v>61</v>
       </c>
@@ -3696,13 +3722,13 @@
         <v>57</v>
       </c>
       <c r="X86" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y86" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="18:36" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R87" t="s">
         <v>61</v>
       </c>
@@ -3719,13 +3745,13 @@
         <v>57</v>
       </c>
       <c r="X87" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y87" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="18:36" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R88" t="s">
         <v>61</v>
       </c>
@@ -3741,17 +3767,14 @@
       <c r="W88" t="s">
         <v>57</v>
       </c>
-      <c r="AA88" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB88">
-        <v>1</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="18:36" x14ac:dyDescent="0.2">
+      <c r="X88" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R89" t="s">
         <v>61</v>
       </c>
@@ -3768,16 +3791,16 @@
         <v>57</v>
       </c>
       <c r="AA89" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="AB89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC89" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="18:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R90" t="s">
         <v>61</v>
       </c>
@@ -3794,70 +3817,79 @@
         <v>57</v>
       </c>
       <c r="AA90" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB90">
+        <v>2</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R91" t="s">
+        <v>61</v>
+      </c>
+      <c r="S91" t="s">
+        <v>62</v>
+      </c>
+      <c r="T91">
+        <v>10</v>
+      </c>
+      <c r="V91" t="s">
+        <v>60</v>
+      </c>
+      <c r="W91" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA91" t="s">
         <v>116</v>
       </c>
-      <c r="AB90">
+      <c r="AB91">
         <v>3</v>
       </c>
-      <c r="AC90" t="s">
+      <c r="AC91" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD91" t="s">
+    <row r="92" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="AD92" t="s">
         <v>3</v>
       </c>
-      <c r="AE91" t="s">
+      <c r="AE92" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD92" t="s">
+    <row r="93" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="AD93" t="s">
         <v>33</v>
       </c>
-      <c r="AE92" t="s">
+      <c r="AE93" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD93" t="s">
+    <row r="94" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="AD94" t="s">
         <v>13</v>
       </c>
-      <c r="AE93" t="s">
+      <c r="AE94" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD94" t="s">
+    <row r="95" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="AD95" t="s">
         <v>8</v>
       </c>
-      <c r="AE94" t="s">
+      <c r="AE95" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AD95" t="s">
+    <row r="96" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="AD96" t="s">
         <v>61</v>
       </c>
-      <c r="AE95" t="s">
+      <c r="AE96" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="18:36" x14ac:dyDescent="0.2">
-      <c r="AF96">
-        <v>1</v>
-      </c>
-      <c r="AG96" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH96">
-        <v>1</v>
-      </c>
-      <c r="AI96">
-        <v>1</v>
-      </c>
-      <c r="AJ96" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="97" spans="32:36" x14ac:dyDescent="0.2">
@@ -3874,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="AJ97" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="32:36" x14ac:dyDescent="0.2">
@@ -3891,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="AJ98" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="32:36" x14ac:dyDescent="0.2">
@@ -3905,10 +3937,10 @@
         <v>1</v>
       </c>
       <c r="AI99">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ99" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="32:36" x14ac:dyDescent="0.2">
@@ -3922,10 +3954,10 @@
         <v>1</v>
       </c>
       <c r="AI100">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ100" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="32:36" x14ac:dyDescent="0.2">
@@ -3939,10 +3971,10 @@
         <v>1</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ101" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="32:36" x14ac:dyDescent="0.2">
@@ -3959,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="AJ102" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="32:36" x14ac:dyDescent="0.2">
@@ -3976,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="AJ103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="32:36" x14ac:dyDescent="0.2">
@@ -3993,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="AJ104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="32:36" x14ac:dyDescent="0.2">
@@ -4010,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="AJ105" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="32:36" x14ac:dyDescent="0.2">
@@ -4024,10 +4056,10 @@
         <v>1</v>
       </c>
       <c r="AI106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ106" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="32:36" x14ac:dyDescent="0.2">
@@ -4041,10 +4073,10 @@
         <v>1</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ107" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="32:36" x14ac:dyDescent="0.2">
@@ -4058,27 +4090,27 @@
         <v>1</v>
       </c>
       <c r="AI108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ108" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI109">
         <v>2</v>
       </c>
       <c r="AJ109" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="32:36" x14ac:dyDescent="0.2">
@@ -4092,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="AI110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ110" t="s">
         <v>1</v>
@@ -4109,7 +4141,7 @@
         <v>2</v>
       </c>
       <c r="AI111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ111" t="s">
         <v>1</v>
@@ -4126,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="AI112">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ112" t="s">
         <v>1</v>
@@ -4143,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="AI113">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ113" t="s">
         <v>1</v>
@@ -4160,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="AI114">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ114" t="s">
         <v>1</v>
@@ -4168,33 +4200,33 @@
     </row>
     <row r="115" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ115" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ116" t="s">
         <v>5</v>
@@ -4211,10 +4243,10 @@
         <v>4</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ117" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="32:36" x14ac:dyDescent="0.2">
@@ -4231,38 +4263,38 @@
         <v>1</v>
       </c>
       <c r="AJ118" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF119">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG119" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH119">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ119" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI120">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ120" t="s">
         <v>5</v>
@@ -4279,10 +4311,10 @@
         <v>6</v>
       </c>
       <c r="AI121">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ121" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="32:36" x14ac:dyDescent="0.2">
@@ -4296,27 +4328,27 @@
         <v>6</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ122" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF123">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH123">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ123" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="32:36" x14ac:dyDescent="0.2">
@@ -4330,27 +4362,27 @@
         <v>7</v>
       </c>
       <c r="AI124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ124" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF125">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH125">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ125" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="32:36" x14ac:dyDescent="0.2">
@@ -4364,27 +4396,27 @@
         <v>8</v>
       </c>
       <c r="AI126">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ126" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF127">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH127">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ127" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="32:36" x14ac:dyDescent="0.2">
@@ -4398,27 +4430,27 @@
         <v>9</v>
       </c>
       <c r="AI128">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ128" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF129">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH129">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI129">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ129" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="32:36" x14ac:dyDescent="0.2">
@@ -4432,27 +4464,27 @@
         <v>10</v>
       </c>
       <c r="AI130">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ130" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF131">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AH131">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI131">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ131" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="32:36" x14ac:dyDescent="0.2">
@@ -4466,27 +4498,27 @@
         <v>11</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ132" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF133">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AH133">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI133">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ133" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="32:36" x14ac:dyDescent="0.2">
@@ -4500,27 +4532,27 @@
         <v>12</v>
       </c>
       <c r="AI134">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AJ134" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF135">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH135">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="32:36" x14ac:dyDescent="0.2">
@@ -4534,27 +4566,27 @@
         <v>13</v>
       </c>
       <c r="AI136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ136" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF137">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH137">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI137">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AJ137" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="32:36" x14ac:dyDescent="0.2">
@@ -4568,27 +4600,27 @@
         <v>14</v>
       </c>
       <c r="AI138">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ138" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF139">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH139">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ139" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="32:36" x14ac:dyDescent="0.2">
@@ -4605,38 +4637,38 @@
         <v>1</v>
       </c>
       <c r="AJ140" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF141">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH141">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI141">
         <v>1</v>
       </c>
       <c r="AJ141" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF142">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AH142">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ142" t="s">
         <v>30</v>
@@ -4644,33 +4676,33 @@
     </row>
     <row r="143" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF143">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH143">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ143" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF144">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH144">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ144" t="s">
         <v>35</v>
@@ -4678,16 +4710,16 @@
     </row>
     <row r="145" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF145">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG145" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH145">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI145">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ145" t="s">
         <v>35</v>
@@ -4704,41 +4736,41 @@
         <v>20</v>
       </c>
       <c r="AI146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ146" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF147">
+        <v>20</v>
+      </c>
+      <c r="AG147" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH147">
+        <v>20</v>
+      </c>
+      <c r="AI147">
+        <v>1</v>
+      </c>
+      <c r="AJ147" t="s">
         <v>21</v>
-      </c>
-      <c r="AG147" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH147">
-        <v>21</v>
-      </c>
-      <c r="AI147">
-        <v>1</v>
-      </c>
-      <c r="AJ147" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="148" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF148">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AH148">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ148" t="s">
         <v>36</v>
@@ -4746,33 +4778,33 @@
     </row>
     <row r="149" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF149">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG149" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH149">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="150" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF150">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH150">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ150" t="s">
         <v>37</v>
@@ -4780,19 +4812,19 @@
     </row>
     <row r="151" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF151">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH151">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ151" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="32:36" x14ac:dyDescent="0.2">
@@ -4806,27 +4838,27 @@
         <v>25</v>
       </c>
       <c r="AI152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ152" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF153">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG153" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH153">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI153">
         <v>2</v>
       </c>
       <c r="AJ153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154" spans="32:36" x14ac:dyDescent="0.2">
@@ -4840,27 +4872,27 @@
         <v>26</v>
       </c>
       <c r="AI154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ154" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF155">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH155">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ155" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="32:36" x14ac:dyDescent="0.2">
@@ -4874,27 +4906,27 @@
         <v>27</v>
       </c>
       <c r="AI156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ156" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF157">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG157" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH157">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI157">
         <v>4</v>
       </c>
       <c r="AJ157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="32:36" x14ac:dyDescent="0.2">
@@ -4908,41 +4940,41 @@
         <v>28</v>
       </c>
       <c r="AI158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ158" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF159">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG159" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH159">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF160">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG160" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AH160">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ160" t="s">
         <v>42</v>
@@ -4950,16 +4982,16 @@
     </row>
     <row r="161" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF161">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG161" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH161">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ161" t="s">
         <v>42</v>
@@ -4967,16 +4999,16 @@
     </row>
     <row r="162" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF162">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG162" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH162">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ162" t="s">
         <v>42</v>
@@ -4993,27 +5025,27 @@
         <v>32</v>
       </c>
       <c r="AI163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ163" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF164">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG164" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH164">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ164" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
@@ -5027,10 +5059,10 @@
         <v>33</v>
       </c>
       <c r="AI165">
+        <v>3</v>
+      </c>
+      <c r="AJ165" t="s">
         <v>5</v>
-      </c>
-      <c r="AJ165" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
@@ -5044,27 +5076,27 @@
         <v>33</v>
       </c>
       <c r="AI166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ166" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF167">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH167">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI167">
         <v>2</v>
       </c>
       <c r="AJ167" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
@@ -5081,24 +5113,24 @@
         <v>2</v>
       </c>
       <c r="AJ168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF169">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG169" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AH169">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ169" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
@@ -5112,10 +5144,10 @@
         <v>35</v>
       </c>
       <c r="AI170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ170" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="32:36" x14ac:dyDescent="0.2">
@@ -5129,10 +5161,10 @@
         <v>35</v>
       </c>
       <c r="AI171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ171" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="32:36" x14ac:dyDescent="0.2">
@@ -5149,24 +5181,24 @@
         <v>1</v>
       </c>
       <c r="AJ172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF173">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG173" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH173">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI173">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ173" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="32:36" x14ac:dyDescent="0.2">
@@ -5180,27 +5212,27 @@
         <v>36</v>
       </c>
       <c r="AI174">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ174" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF175">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG175" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AH175">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="176" spans="32:36" x14ac:dyDescent="0.2">
@@ -5217,7 +5249,7 @@
         <v>2</v>
       </c>
       <c r="AJ176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
@@ -5234,7 +5266,7 @@
         <v>2</v>
       </c>
       <c r="AJ177" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="178" spans="32:36" x14ac:dyDescent="0.2">
@@ -5251,7 +5283,7 @@
         <v>2</v>
       </c>
       <c r="AJ178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
@@ -5265,10 +5297,10 @@
         <v>37</v>
       </c>
       <c r="AI179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
@@ -5282,10 +5314,10 @@
         <v>37</v>
       </c>
       <c r="AI180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ180" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
@@ -5302,7 +5334,7 @@
         <v>2</v>
       </c>
       <c r="AJ181" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
@@ -5319,7 +5351,7 @@
         <v>2</v>
       </c>
       <c r="AJ182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
@@ -5336,7 +5368,7 @@
         <v>2</v>
       </c>
       <c r="AJ183" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="184" spans="32:36" x14ac:dyDescent="0.2">
@@ -5353,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="AJ184" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
@@ -5370,7 +5402,7 @@
         <v>2</v>
       </c>
       <c r="AJ185" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
@@ -5387,7 +5419,7 @@
         <v>2</v>
       </c>
       <c r="AJ186" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="32:36" x14ac:dyDescent="0.2">
@@ -5401,10 +5433,10 @@
         <v>37</v>
       </c>
       <c r="AI187">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ187" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="188" spans="32:36" x14ac:dyDescent="0.2">
@@ -5418,27 +5450,27 @@
         <v>37</v>
       </c>
       <c r="AI188">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ188" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF189">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG189" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="AH189">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI189">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ189" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="32:36" x14ac:dyDescent="0.2">
@@ -5452,27 +5484,48 @@
         <v>38</v>
       </c>
       <c r="AI190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ190" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF191">
+        <v>38</v>
+      </c>
+      <c r="AG191" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH191">
+        <v>38</v>
+      </c>
+      <c r="AI191">
+        <v>1</v>
+      </c>
+      <c r="AJ191" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT207">
-    <sortCondition ref="A1:A207"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT208">
+    <sortCondition ref="A1:A208"/>
   </sortState>
-  <mergeCells count="7">
-    <mergeCell ref="A47:C48"/>
+  <mergeCells count="8">
+    <mergeCell ref="A48:C49"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{8874EB4E-ED28-E14F-8CB0-8D46649A92EB}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="69" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>